--- a/Шаблон.xlsx
+++ b/Шаблон.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E27EA7F-E036-4CF5-B618-CE77EC77DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D1A81F-DBAA-4849-9D50-3D93B347A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="414" firstSheet="2" activeTab="2" xr2:uid="{A55FFE0D-A6D8-4D84-B615-F23C27029847}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="414" firstSheet="2" activeTab="2" xr2:uid="{A55FFE0D-A6D8-4D84-B615-F23C27029847}"/>
   </bookViews>
   <sheets>
     <sheet name="-1-" sheetId="4" state="hidden" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">#N/A</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#N/A</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'АОСР армир'!$A$1:$H$112</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'АОСР бетон'!$A$1:$H$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'АОСР бетон'!$A$1:$H$118</definedName>
     <definedName name="проводки" localSheetId="3">#N/A</definedName>
     <definedName name="проводки" localSheetId="2">#N/A</definedName>
     <definedName name="проводки">#N/A</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="138">
   <si>
     <t>Приложения:</t>
   </si>
@@ -464,25 +464,40 @@
     <t>ООО «Институт «Мосинжпроект», [Шифр]</t>
   </si>
   <si>
-    <t>[Согл Дат]</t>
-  </si>
-  <si>
     <t>[Дата начала работы]</t>
   </si>
   <si>
     <t>[Дата окончания работы]</t>
   </si>
   <si>
-    <t>[Лаборатория]</t>
-  </si>
-  <si>
-    <t>[Материалы]</t>
-  </si>
-  <si>
     <t>Исполнительная схема №[№ акта] от [Дата окончания работы]</t>
   </si>
   <si>
-    <t>[№ акта]</t>
+    <t>[Материалы1]</t>
+  </si>
+  <si>
+    <t>[Материалы2]</t>
+  </si>
+  <si>
+    <t>№[№ акта]</t>
+  </si>
+  <si>
+    <t>[Дата акта]</t>
+  </si>
+  <si>
+    <t>[Согласование]</t>
+  </si>
+  <si>
+    <t>[Материалы1_1]</t>
+  </si>
+  <si>
+    <t>[Лаборатория1]</t>
+  </si>
+  <si>
+    <t>[Лаборатория2]</t>
+  </si>
+  <si>
+    <t>[Материалы2_1]</t>
   </si>
 </sst>
 </file>
@@ -1218,6 +1233,75 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1283,21 +1367,6 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1376,59 +1445,32 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="12" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1457,124 +1499,97 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9507,14 +9522,14 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="117" t="e">
+      <c r="H1" s="76" t="e">
         <f>CONCATENATE(#REF!, ,#REF!,#REF!, ,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="118"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -9547,18 +9562,18 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="121" t="e">
+      <c r="F6" s="80" t="e">
         <f>#REF!+#REF!-0.5</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="121"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="16"/>
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
@@ -9574,11 +9589,11 @@
       <c r="G7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="121" t="e">
+      <c r="K7" s="80" t="e">
         <f>B7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="122"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -9586,194 +9601,194 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="86"/>
-      <c r="I9" s="128" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="I9" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="128"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="29"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="29"/>
       <c r="F11" s="28"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="21"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="G12" s="19"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="27"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="26"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="21"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="21"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="129" t="e">
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="130"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="25"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
       <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17"/>
-      <c r="I18" s="80" t="e">
+      <c r="I18" s="103" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="104"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="83"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="21"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="127"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="106"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="G25" s="20"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="106"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="86"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="83"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="83"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="106"/>
       <c r="K27" s="19"/>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="83"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="106"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="F29" s="66" t="e">
+      <c r="F29" s="89" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="89" t="e">
+      <c r="G29" s="89"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="84" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="90"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
+      <c r="B30" s="87"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="108"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -9784,11 +9799,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D31" s="65" t="e">
+      <c r="D31" s="88" t="e">
         <f>CONCATENATE(#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E31" s="65"/>
+      <c r="E31" s="88"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -9873,58 +9888,58 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="92"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="79"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="102"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="104"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="107"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="125"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -9939,14 +9954,14 @@
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="110"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="128"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -9961,20 +9976,20 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="111"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="129"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="114" t="s">
+      <c r="K51" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="115"/>
+      <c r="L51" s="133"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -9989,97 +10004,80 @@
         <f>D51</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="105"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="124" t="s">
+      <c r="E52" s="123"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="100"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="132"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="73"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="75"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="91" t="e">
+      <c r="E54" s="109" t="e">
         <f xml:space="preserve"> CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="67" t="s">
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="69"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="92"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="72"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="95"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="75"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I9:J17"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F28:H28"/>
@@ -10096,6 +10094,23 @@
     <mergeCell ref="E51:H53"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="F27:H27"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I9:J17"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -10135,19 +10150,19 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="117" t="e">
+      <c r="H1" s="76" t="e">
         <f>CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="118"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10155,10 +10170,10 @@
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="32"/>
       <c r="I3" s="35"/>
       <c r="J3" s="32"/>
@@ -10167,11 +10182,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="E4" s="151" t="e">
+      <c r="E4" s="136" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F4" s="151"/>
+      <c r="F4" s="136"/>
       <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
@@ -10183,21 +10198,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="E5" s="151" t="e">
+      <c r="E5" s="136" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F5" s="65"/>
+      <c r="F5" s="88"/>
       <c r="G5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="A6" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -10211,11 +10226,11 @@
       <c r="B7" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="K7" s="121" t="e">
+      <c r="K7" s="80" t="e">
         <f>B7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="122"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -10223,18 +10238,18 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
-      <c r="B9" s="86"/>
-      <c r="G9" s="151" t="e">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="G9" s="136" t="e">
         <v>#REF!</v>
       </c>
-      <c r="H9" s="152"/>
-      <c r="I9" s="150" t="s">
+      <c r="H9" s="137"/>
+      <c r="I9" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="150"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
@@ -10242,146 +10257,146 @@
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="17"/>
       <c r="F11" s="28"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
       <c r="K11" s="21"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="G12" s="19"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
       <c r="K13" s="27"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="26"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
       <c r="K14" s="21"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
       <c r="K15" s="21"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="129" t="e">
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="70" t="e">
         <v>#REF!</v>
       </c>
-      <c r="L16" s="130"/>
+      <c r="L16" s="71"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="25"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17"/>
-      <c r="I18" s="144" t="e">
+      <c r="I18" s="138" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J18" s="145"/>
+      <c r="J18" s="139"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="88"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
       <c r="K20" s="21"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="127"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="68"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="123"/>
-      <c r="B22" s="86"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="88"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="21"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="21"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="88"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
       <c r="K27" s="19"/>
       <c r="L27" s="14"/>
     </row>
@@ -10393,13 +10408,13 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="64" t="s">
+      <c r="F28" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -10412,21 +10427,21 @@
       <c r="G29" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="89" t="e">
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="84" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="90"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="149"/>
+      <c r="B30" s="87"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="143"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -10436,10 +10451,10 @@
       <c r="B31" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="D31" s="86" t="e">
+      <c r="D31" s="83" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E31" s="86"/>
+      <c r="E31" s="83"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -10511,58 +10526,58 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="92"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="79"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="102"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="104"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="122"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="107"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="125"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -10577,14 +10592,14 @@
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="110"/>
+      <c r="E50" s="126"/>
+      <c r="F50" s="127"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="127"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="127"/>
+      <c r="K50" s="127"/>
+      <c r="L50" s="128"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -10598,22 +10613,22 @@
       <c r="D51" s="7" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="111"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="129"/>
       <c r="I51" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="114" t="s">
+      <c r="K51" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="115"/>
+      <c r="L51" s="133"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -10627,90 +10642,94 @@
         <f>D51</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="105"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="112"/>
-      <c r="I52" s="124" t="s">
+      <c r="E52" s="123"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="100"/>
-      <c r="K52" s="131"/>
-      <c r="L52" s="132"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="73"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="108"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="101"/>
-      <c r="K53" s="133"/>
-      <c r="L53" s="134"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="75"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="135" t="e">
+      <c r="E54" s="144" t="e">
         <f xml:space="preserve"> CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="137"/>
-      <c r="I54" s="67" t="s">
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="146"/>
+      <c r="I54" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="69"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="92"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="138"/>
-      <c r="F55" s="139"/>
-      <c r="G55" s="139"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="72"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="149"/>
+      <c r="I55" s="93"/>
+      <c r="J55" s="94"/>
+      <c r="K55" s="94"/>
+      <c r="L55" s="95"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="73"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="75"/>
+      <c r="E56" s="150"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I9:J17"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E54:H56"/>
+    <mergeCell ref="I54:L56"/>
+    <mergeCell ref="E48:L50"/>
+    <mergeCell ref="E51:H53"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:C27"/>
     <mergeCell ref="E46:L47"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
@@ -10724,20 +10743,16 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="I18:J30"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="E54:H56"/>
-    <mergeCell ref="I54:L56"/>
-    <mergeCell ref="E48:L50"/>
-    <mergeCell ref="E51:H53"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I9:J17"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -10749,12 +10764,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93ACE5CA-05F7-417D-A620-03F65E5F2876}">
   <sheetPr codeName="Лист3">
     <tabColor theme="6" tint="0.79998168889431442"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85:H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10771,10 +10785,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="154" t="s">
         <v>117</v>
       </c>
@@ -10785,52 +10799,52 @@
       <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="154" t="s">
@@ -10845,16 +10859,16 @@
       <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="154" t="s">
@@ -10869,71 +10883,71 @@
       <c r="H8" s="154"/>
     </row>
     <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
       <c r="D14" s="154" t="s">
         <v>47</v>
       </c>
@@ -10946,13 +10960,13 @@
       <c r="A15" s="46"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="154" t="s">
@@ -10967,16 +10981,16 @@
       <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="154" t="s">
@@ -10991,25 +11005,25 @@
       <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
       <c r="F20" s="48" t="s">
         <v>77</v>
       </c>
@@ -11018,15 +11032,15 @@
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="154" t="s">
@@ -11041,16 +11055,16 @@
       <c r="H22" s="154"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="154" t="s">
@@ -11065,53 +11079,53 @@
       <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="177" t="s">
+      <c r="A27" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="178" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
+      <c r="A28" s="164" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
       <c r="H28" s="62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -11127,16 +11141,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
@@ -11153,16 +11167,16 @@
       <c r="H31" s="154"/>
     </row>
     <row r="32" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="154" t="s">
@@ -11177,16 +11191,16 @@
       <c r="H33" s="154"/>
     </row>
     <row r="34" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155" t="s">
+      <c r="A34" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="154" t="s">
@@ -11201,16 +11215,16 @@
       <c r="H35" s="154"/>
     </row>
     <row r="36" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154" t="s">
@@ -11225,24 +11239,24 @@
       <c r="H37" s="154"/>
     </row>
     <row r="38" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="155" t="s">
+      <c r="A38" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
       <c r="E39" s="154" t="s">
         <v>110</v>
       </c>
@@ -11275,28 +11289,28 @@
       <c r="H41" s="154"/>
     </row>
     <row r="42" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="167"/>
     </row>
     <row r="44" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="154" t="s">
@@ -11311,16 +11325,16 @@
       <c r="H44" s="154"/>
     </row>
     <row r="45" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="174" t="s">
+      <c r="A45" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="169"/>
     </row>
     <row r="46" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="154" t="s">
@@ -11335,16 +11349,16 @@
       <c r="H46" s="154"/>
     </row>
     <row r="47" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155" t="s">
+      <c r="A47" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="155"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
     </row>
     <row r="48" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="154" t="s">
@@ -11359,28 +11373,28 @@
       <c r="H48" s="154"/>
     </row>
     <row r="49" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="155" t="s">
+      <c r="A49" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="155"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="155"/>
-      <c r="H49" s="155"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
     </row>
     <row r="50" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="156" t="s">
+      <c r="A50" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="167"/>
     </row>
     <row r="51" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="154" t="s">
@@ -11395,76 +11409,76 @@
       <c r="H51" s="154"/>
     </row>
     <row r="52" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="173" t="s">
+      <c r="A52" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="173"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
-      <c r="H52" s="173"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
     </row>
     <row r="53" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="172"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
     </row>
     <row r="54" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="173" t="s">
+      <c r="A54" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="173"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
     </row>
     <row r="55" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="172" t="s">
+      <c r="A55" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="172"/>
-      <c r="C55" s="172"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="172"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="172"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="155" t="s">
+      <c r="A56" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="155"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="157"/>
     </row>
     <row r="57" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="165" t="s">
+      <c r="A57" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
     </row>
     <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="154" t="s">
@@ -11479,16 +11493,16 @@
       <c r="H58" s="154"/>
     </row>
     <row r="59" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="155" t="s">
+      <c r="A59" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="155"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="154" t="s">
@@ -11503,25 +11517,25 @@
       <c r="H60" s="154"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="155"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
     </row>
     <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="156" t="s">
+      <c r="A62" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="156"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
       <c r="F62" s="154" t="s">
         <v>120</v>
       </c>
@@ -11529,47 +11543,47 @@
       <c r="H62" s="154"/>
     </row>
     <row r="63" spans="1:8" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="170" t="s">
+      <c r="A63" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170"/>
-      <c r="G63" s="170"/>
-      <c r="H63" s="170"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="155"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="168" t="s">
+      <c r="A64" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="168"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="168"/>
-    </row>
-    <row r="65" spans="1:9" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="155" t="s">
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+    </row>
+    <row r="65" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="155"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="155"/>
-    </row>
-    <row r="66" spans="1:9" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="156" t="s">
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
+    </row>
+    <row r="66" spans="1:8" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="156"/>
-      <c r="C66" s="156"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="167"/>
       <c r="D66" s="154" t="s">
         <v>79</v>
       </c>
@@ -11578,67 +11592,67 @@
       <c r="G66" s="154"/>
       <c r="H66" s="154"/>
     </row>
-    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="54"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
-      <c r="D67" s="155" t="s">
+      <c r="D67" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="155"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="155"/>
-    </row>
-    <row r="68" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="171" t="s">
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="171"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="171"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-    </row>
-    <row r="69" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="168" t="s">
+      <c r="B68" s="172"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="173"/>
+      <c r="G68" s="173"/>
+      <c r="H68" s="173"/>
+    </row>
+    <row r="69" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
-    </row>
-    <row r="70" spans="1:9" s="54" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="155" t="s">
+      <c r="B69" s="155"/>
+      <c r="C69" s="155"/>
+      <c r="D69" s="155"/>
+      <c r="E69" s="155"/>
+      <c r="F69" s="155"/>
+      <c r="G69" s="155"/>
+      <c r="H69" s="155"/>
+    </row>
+    <row r="70" spans="1:8" s="54" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="155"/>
-      <c r="C70" s="155"/>
-      <c r="D70" s="155"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="155"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="156" t="s">
+      <c r="B70" s="166"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="166"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="166"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="166"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
+      <c r="B71" s="167"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="154"/>
       <c r="F71" s="154"/>
       <c r="G71" s="154"/>
       <c r="H71" s="154"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="154" t="s">
         <v>125</v>
       </c>
@@ -11650,615 +11664,629 @@
       <c r="G72" s="154"/>
       <c r="H72" s="154"/>
     </row>
-    <row r="73" spans="1:9" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="163" t="s">
+    <row r="73" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="163"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="163"/>
-      <c r="F73" s="163"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="156" t="s">
+      <c r="B73" s="166"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="166"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="156"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="156"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="169" t="s">
+      <c r="B74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="177" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="177"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="177"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="177"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="177" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="177"/>
+      <c r="C76" s="177"/>
+      <c r="D76" s="177"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="177"/>
+      <c r="H76" s="177"/>
+    </row>
+    <row r="77" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="166" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="166"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
+      <c r="E77" s="166"/>
+      <c r="F77" s="166"/>
+      <c r="G77" s="166"/>
+      <c r="H77" s="166"/>
+    </row>
+    <row r="78" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="167"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
+      <c r="H78" s="167"/>
+    </row>
+    <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="176" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="176"/>
+      <c r="C79" s="176"/>
+      <c r="D79" s="176"/>
+      <c r="E79" s="176"/>
+      <c r="F79" s="176"/>
+      <c r="G79" s="176"/>
+      <c r="H79" s="176"/>
+    </row>
+    <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="176"/>
+      <c r="C80" s="176"/>
+      <c r="D80" s="176"/>
+      <c r="E80" s="176"/>
+      <c r="F80" s="176"/>
+      <c r="G80" s="176"/>
+      <c r="H80" s="176"/>
+    </row>
+    <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="176" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" s="176"/>
+      <c r="C81" s="176"/>
+      <c r="D81" s="176"/>
+      <c r="E81" s="176"/>
+      <c r="F81" s="176"/>
+      <c r="G81" s="176"/>
+      <c r="H81" s="176"/>
+    </row>
+    <row r="82" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="157" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="157"/>
+      <c r="C82" s="157"/>
+      <c r="D82" s="157"/>
+      <c r="E82" s="157"/>
+      <c r="F82" s="157"/>
+      <c r="G82" s="157"/>
+      <c r="H82" s="157"/>
+    </row>
+    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="174"/>
+      <c r="C83" s="175" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="175"/>
+      <c r="E83" s="175"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+    </row>
+    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="174" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" s="174"/>
+      <c r="C84" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="175"/>
+      <c r="E84" s="175"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+    </row>
+    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="154" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="154"/>
+      <c r="F85" s="154"/>
+      <c r="G85" s="154"/>
+      <c r="H85" s="154"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="154" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="154"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="154"/>
+      <c r="G86" s="154"/>
+      <c r="H86" s="154"/>
+    </row>
+    <row r="87" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="157"/>
+      <c r="C87" s="157"/>
+      <c r="D87" s="157"/>
+      <c r="E87" s="157"/>
+      <c r="F87" s="157"/>
+      <c r="G87" s="157"/>
+      <c r="H87" s="157"/>
+    </row>
+    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="167"/>
+      <c r="C88" s="167"/>
+      <c r="D88" s="167"/>
+      <c r="E88" s="167"/>
+      <c r="F88" s="173"/>
+      <c r="G88" s="173"/>
+      <c r="H88" s="173"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="154" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="154"/>
+      <c r="C89" s="154"/>
+      <c r="D89" s="154"/>
+      <c r="E89" s="154"/>
+      <c r="F89" s="154"/>
+      <c r="G89" s="154"/>
+      <c r="H89" s="154"/>
+    </row>
+    <row r="90" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="157" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="157"/>
+      <c r="C90" s="157"/>
+      <c r="D90" s="157"/>
+      <c r="E90" s="157"/>
+      <c r="F90" s="157"/>
+      <c r="G90" s="157"/>
+      <c r="H90" s="157"/>
+    </row>
+    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="167" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="167"/>
+      <c r="C91" s="182" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="182"/>
+      <c r="E91" s="182"/>
+      <c r="F91" s="182"/>
+      <c r="G91" s="182"/>
+      <c r="H91" s="182"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="183"/>
+      <c r="B92" s="183"/>
+      <c r="C92" s="183"/>
+      <c r="D92" s="183"/>
+      <c r="E92" s="183"/>
+      <c r="F92" s="183"/>
+      <c r="G92" s="183"/>
+      <c r="H92" s="183"/>
+    </row>
+    <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="179" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="179"/>
+      <c r="C93" s="179"/>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+    </row>
+    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="180"/>
+      <c r="C94" s="180"/>
+      <c r="D94" s="180"/>
+      <c r="E94" s="180"/>
+      <c r="F94" s="180"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+    </row>
+    <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="176" t="str">
+        <f>A79</f>
+        <v>Исполнительная схема №[№ акта] от [Дата окончания работы]</v>
+      </c>
+      <c r="B95" s="176"/>
+      <c r="C95" s="176"/>
+      <c r="D95" s="176"/>
+      <c r="E95" s="176"/>
+      <c r="F95" s="176"/>
+      <c r="G95" s="176"/>
+      <c r="H95" s="176"/>
+    </row>
+    <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="176" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="169"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="169"/>
-      <c r="E75" s="169"/>
-      <c r="F75" s="169"/>
-      <c r="G75" s="169"/>
-      <c r="H75" s="169"/>
-      <c r="I75" s="27" t="e">
-        <f>IF(#REF!="Реестр", "Материалы согласно реестру "&amp;A28&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г.",#REF!&amp; " - документ о качестве бетонной смеси заданного состава качества партии №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г.")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="163"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="163"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="163"/>
-      <c r="I76" s="54" t="e">
-        <f>#REF!&amp;" - документ о качестве бетонной смеси заданного состава качества партии №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г.,"</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="156"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
-      <c r="I77" s="27" t="e">
-        <f>"№"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г."</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="162"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="162"/>
-      <c r="E78" s="162"/>
-      <c r="F78" s="162"/>
-      <c r="G78" s="162"/>
-      <c r="H78" s="162"/>
-      <c r="I78" s="27" t="e">
-        <f>"№"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г., №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г."</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="162" t="s">
-        <v>129</v>
-      </c>
-      <c r="B79" s="162"/>
-      <c r="C79" s="162"/>
-      <c r="D79" s="162"/>
-      <c r="E79" s="162"/>
-      <c r="F79" s="162"/>
-      <c r="G79" s="162"/>
-      <c r="H79" s="162"/>
-    </row>
-    <row r="80" spans="1:9" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="155" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="155"/>
-      <c r="C80" s="155"/>
-      <c r="D80" s="155"/>
-      <c r="E80" s="155"/>
-      <c r="F80" s="155"/>
-      <c r="G80" s="155"/>
-      <c r="H80" s="155"/>
-    </row>
-    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="166" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="166"/>
-      <c r="C81" s="167" t="s">
-        <v>127</v>
-      </c>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-    </row>
-    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="166" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="166"/>
-      <c r="C82" s="167" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" s="167"/>
-      <c r="E82" s="167"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-    </row>
-    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="156" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="156"/>
-      <c r="C83" s="156"/>
-      <c r="D83" s="154" t="s">
-        <v>72</v>
-      </c>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="154"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="154" t="s">
-        <v>73</v>
-      </c>
-      <c r="B84" s="154"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154"/>
-      <c r="H84" s="154"/>
-    </row>
-    <row r="85" spans="1:9" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="155" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" s="155"/>
-      <c r="C85" s="155"/>
-      <c r="D85" s="155"/>
-      <c r="E85" s="155"/>
-      <c r="F85" s="155"/>
-      <c r="G85" s="155"/>
-      <c r="H85" s="155"/>
-    </row>
-    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86" s="156"/>
-      <c r="C86" s="156"/>
-      <c r="D86" s="156"/>
-      <c r="E86" s="156"/>
-      <c r="F86" s="157"/>
-      <c r="G86" s="157"/>
-      <c r="H86" s="157"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="154" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="154"/>
-      <c r="C87" s="154"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="154"/>
-    </row>
-    <row r="88" spans="1:9" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="155"/>
-      <c r="C88" s="155"/>
-      <c r="D88" s="155"/>
-      <c r="E88" s="155"/>
-      <c r="F88" s="155"/>
-      <c r="G88" s="155"/>
-      <c r="H88" s="155"/>
-    </row>
-    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="156" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" s="156"/>
-      <c r="C89" s="158" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" s="158"/>
-      <c r="E89" s="158"/>
-      <c r="F89" s="158"/>
-      <c r="G89" s="158"/>
-      <c r="H89" s="158"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="159"/>
-      <c r="B90" s="159"/>
-      <c r="C90" s="159"/>
-      <c r="D90" s="159"/>
-      <c r="E90" s="159"/>
-      <c r="F90" s="159"/>
-      <c r="G90" s="159"/>
-      <c r="H90" s="159"/>
-    </row>
-    <row r="91" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="160" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="160"/>
-      <c r="C91" s="160"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-    </row>
-    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="161"/>
-      <c r="C92" s="161"/>
-      <c r="D92" s="161"/>
-      <c r="E92" s="161"/>
-      <c r="F92" s="161"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-    </row>
-    <row r="93" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="162" t="str">
-        <f>A78</f>
-        <v>Исполнительная схема №[№ акта] от [Дата окончания работы]</v>
-      </c>
-      <c r="B93" s="162"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="162"/>
-      <c r="E93" s="162"/>
-      <c r="F93" s="162"/>
-      <c r="G93" s="162"/>
-      <c r="H93" s="162"/>
-      <c r="I93" s="27" t="e">
-        <f>IF(#REF!="Реестр", "Реестр "&amp;A28&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г.", "ДКБС №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г.")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="162" t="s">
-        <v>130</v>
-      </c>
-      <c r="B94" s="162"/>
-      <c r="C94" s="162"/>
-      <c r="D94" s="162"/>
-      <c r="E94" s="162"/>
-      <c r="F94" s="162"/>
-      <c r="G94" s="162"/>
-      <c r="H94" s="162"/>
-      <c r="I94" s="27" t="e">
-        <f>"ДКБС №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г., №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г."</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="162" t="str">
-        <f t="shared" ref="A95" si="0">A79</f>
-        <v>[Лаборатория]</v>
-      </c>
-      <c r="B95" s="162"/>
-      <c r="C95" s="162"/>
-      <c r="D95" s="162"/>
-      <c r="E95" s="162"/>
-      <c r="F95" s="162"/>
-      <c r="G95" s="162"/>
-      <c r="H95" s="162"/>
-      <c r="I95" s="27" t="e">
-        <f>"ДКБС №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г., №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г., №"&amp;#REF!&amp;" от "&amp;TEXT(C82,"ДД.ММ.ГГГГ")&amp;"г."</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="164" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" s="164"/>
-      <c r="C96" s="164"/>
-      <c r="D96" s="164"/>
-      <c r="E96" s="164"/>
-      <c r="F96" s="164"/>
-      <c r="G96" s="164"/>
-      <c r="H96" s="164"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="163" t="s">
+      <c r="B96" s="176"/>
+      <c r="C96" s="176"/>
+      <c r="D96" s="176"/>
+      <c r="E96" s="176"/>
+      <c r="F96" s="176"/>
+      <c r="G96" s="176"/>
+      <c r="H96" s="176"/>
+    </row>
+    <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="176" t="s">
+        <v>137</v>
+      </c>
+      <c r="B97" s="176"/>
+      <c r="C97" s="176"/>
+      <c r="D97" s="176"/>
+      <c r="E97" s="176"/>
+      <c r="F97" s="176"/>
+      <c r="G97" s="176"/>
+      <c r="H97" s="176"/>
+    </row>
+    <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="176"/>
+      <c r="C98" s="176"/>
+      <c r="D98" s="176"/>
+      <c r="E98" s="176"/>
+      <c r="F98" s="176"/>
+      <c r="G98" s="176"/>
+      <c r="H98" s="176"/>
+    </row>
+    <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="176" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="176"/>
+      <c r="C99" s="176"/>
+      <c r="D99" s="176"/>
+      <c r="E99" s="176"/>
+      <c r="F99" s="176"/>
+      <c r="G99" s="176"/>
+      <c r="H99" s="176"/>
+    </row>
+    <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="181" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="181"/>
+      <c r="C100" s="181"/>
+      <c r="D100" s="181"/>
+      <c r="E100" s="181"/>
+      <c r="F100" s="181"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="181"/>
+    </row>
+    <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="163"/>
-      <c r="C97" s="163"/>
-      <c r="D97" s="163"/>
-      <c r="E97" s="163"/>
-      <c r="F97" s="163"/>
-      <c r="G97" s="163"/>
-      <c r="H97" s="163"/>
-    </row>
-    <row r="98" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="156" t="s">
+      <c r="B101" s="166"/>
+      <c r="C101" s="166"/>
+      <c r="D101" s="166"/>
+      <c r="E101" s="166"/>
+      <c r="F101" s="166"/>
+      <c r="G101" s="166"/>
+      <c r="H101" s="166"/>
+    </row>
+    <row r="102" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B98" s="156"/>
-      <c r="C98" s="156"/>
-      <c r="D98" s="156"/>
-      <c r="E98" s="156"/>
-      <c r="F98" s="156"/>
-      <c r="G98" s="156"/>
-      <c r="H98" s="156"/>
-    </row>
-    <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="55" t="s">
+      <c r="B102" s="167"/>
+      <c r="C102" s="167"/>
+      <c r="D102" s="167"/>
+      <c r="E102" s="167"/>
+      <c r="F102" s="167"/>
+      <c r="G102" s="167"/>
+      <c r="H102" s="167"/>
+    </row>
+    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="153" t="s">
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="F99" s="153"/>
-      <c r="G99" s="153"/>
-      <c r="H99" s="60"/>
-    </row>
-    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
-      <c r="B100" s="57"/>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="155" t="s">
+      <c r="F103" s="178"/>
+      <c r="G103" s="178"/>
+      <c r="H103" s="60"/>
+    </row>
+    <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="57"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F100" s="155"/>
-      <c r="G100" s="155"/>
-      <c r="H100" s="155"/>
-    </row>
-    <row r="101" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="156" t="s">
+      <c r="F104" s="157"/>
+      <c r="G104" s="157"/>
+      <c r="H104" s="157"/>
+    </row>
+    <row r="105" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="B101" s="156"/>
-      <c r="C101" s="156"/>
-      <c r="D101" s="156"/>
-      <c r="E101" s="156"/>
-      <c r="F101" s="156"/>
-      <c r="G101" s="156"/>
-      <c r="H101" s="156"/>
-    </row>
-    <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="60"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="153" t="s">
+      <c r="B105" s="167"/>
+      <c r="C105" s="167"/>
+      <c r="D105" s="167"/>
+      <c r="E105" s="167"/>
+      <c r="F105" s="167"/>
+      <c r="G105" s="167"/>
+      <c r="H105" s="167"/>
+    </row>
+    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="60"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="F102" s="153"/>
-      <c r="G102" s="153"/>
-      <c r="H102" s="60"/>
-    </row>
-    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
-      <c r="B103" s="57"/>
-      <c r="C103" s="57"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="155" t="s">
+      <c r="F106" s="178"/>
+      <c r="G106" s="178"/>
+      <c r="H106" s="60"/>
+    </row>
+    <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F103" s="155"/>
-      <c r="G103" s="155"/>
-      <c r="H103" s="155"/>
-    </row>
-    <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="165" t="s">
+      <c r="F107" s="157"/>
+      <c r="G107" s="157"/>
+      <c r="H107" s="157"/>
+    </row>
+    <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B104" s="165"/>
-      <c r="C104" s="165"/>
-      <c r="D104" s="165"/>
-      <c r="E104" s="165"/>
-      <c r="F104" s="165"/>
-      <c r="G104" s="165"/>
-      <c r="H104" s="165"/>
-    </row>
-    <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="165" t="s">
-        <v>96</v>
-      </c>
-      <c r="B105" s="165"/>
-      <c r="C105" s="165"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="153" t="s">
-        <v>107</v>
-      </c>
-      <c r="F105" s="153"/>
-      <c r="G105" s="153"/>
-      <c r="H105" s="61"/>
-    </row>
-    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="155" t="s">
-        <v>65</v>
-      </c>
-      <c r="F106" s="155"/>
-      <c r="G106" s="155"/>
-      <c r="H106" s="155"/>
-    </row>
-    <row r="107" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="156" t="s">
-        <v>38</v>
-      </c>
-      <c r="B107" s="156"/>
-      <c r="C107" s="156"/>
-      <c r="D107" s="156"/>
-      <c r="E107" s="156"/>
-      <c r="F107" s="156"/>
-      <c r="G107" s="156"/>
-      <c r="H107" s="156"/>
-    </row>
-    <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="60"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="60"/>
-      <c r="E108" s="153" t="s">
-        <v>115</v>
-      </c>
+      <c r="B108" s="153"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="153"/>
+      <c r="E108" s="153"/>
       <c r="F108" s="153"/>
       <c r="G108" s="153"/>
-      <c r="H108" s="60"/>
+      <c r="H108" s="153"/>
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="57"/>
-      <c r="B109" s="57"/>
-      <c r="C109" s="57"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="155" t="s">
+      <c r="A109" s="153" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" s="153"/>
+      <c r="C109" s="153"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="178" t="s">
+        <v>107</v>
+      </c>
+      <c r="F109" s="178"/>
+      <c r="G109" s="178"/>
+      <c r="H109" s="61"/>
+    </row>
+    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="57"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F109" s="155"/>
-      <c r="G109" s="155"/>
-      <c r="H109" s="155"/>
-    </row>
-    <row r="110" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="156" t="s">
+      <c r="F110" s="157"/>
+      <c r="G110" s="157"/>
+      <c r="H110" s="157"/>
+    </row>
+    <row r="111" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="167" t="s">
+        <v>38</v>
+      </c>
+      <c r="B111" s="167"/>
+      <c r="C111" s="167"/>
+      <c r="D111" s="167"/>
+      <c r="E111" s="167"/>
+      <c r="F111" s="167"/>
+      <c r="G111" s="167"/>
+      <c r="H111" s="167"/>
+    </row>
+    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="60"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="178" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="178"/>
+      <c r="G112" s="178"/>
+      <c r="H112" s="60"/>
+    </row>
+    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="57"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="157"/>
+      <c r="G113" s="157"/>
+      <c r="H113" s="157"/>
+    </row>
+    <row r="114" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="B110" s="156"/>
-      <c r="C110" s="156"/>
-      <c r="D110" s="156"/>
-      <c r="E110" s="156"/>
-      <c r="F110" s="156"/>
-      <c r="G110" s="156"/>
-      <c r="H110" s="156"/>
-    </row>
-    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="60"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="153" t="s">
+      <c r="B114" s="167"/>
+      <c r="C114" s="167"/>
+      <c r="D114" s="167"/>
+      <c r="E114" s="167"/>
+      <c r="F114" s="167"/>
+      <c r="G114" s="167"/>
+      <c r="H114" s="167"/>
+    </row>
+    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="60"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="F111" s="153"/>
-      <c r="G111" s="153"/>
-      <c r="H111" s="60"/>
-    </row>
-    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="155" t="s">
+      <c r="F115" s="178"/>
+      <c r="G115" s="178"/>
+      <c r="H115" s="60"/>
+    </row>
+    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="57"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F112" s="155"/>
-      <c r="G112" s="155"/>
-      <c r="H112" s="155"/>
-    </row>
-    <row r="113" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="55" t="s">
+      <c r="F116" s="157"/>
+      <c r="G116" s="157"/>
+      <c r="H116" s="157"/>
+    </row>
+    <row r="117" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="45"/>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="153" t="s">
+      <c r="B117" s="45"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="F113" s="153"/>
-      <c r="G113" s="153"/>
-      <c r="H113" s="45"/>
-    </row>
-    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="57"/>
-      <c r="B114" s="57"/>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="155" t="s">
+      <c r="F117" s="178"/>
+      <c r="G117" s="178"/>
+      <c r="H117" s="45"/>
+    </row>
+    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="57"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="57"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F114" s="155"/>
-      <c r="G114" s="155"/>
-      <c r="H114" s="155"/>
+      <c r="F118" s="157"/>
+      <c r="G118" s="157"/>
+      <c r="H118" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
+  <mergeCells count="131">
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="E118:H118"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="E113:H113"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="E116:H116"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A101:H101"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="A98:H98"/>
+    <mergeCell ref="A100:H100"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="E110:H110"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A76:H76"/>
     <mergeCell ref="A62:E62"/>
     <mergeCell ref="F62:H62"/>
     <mergeCell ref="A63:H63"/>
@@ -12269,67 +12297,76 @@
     <mergeCell ref="D67:H67"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="F68:H68"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="E114:H114"/>
-    <mergeCell ref="A107:H107"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="A110:H110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="E112:H112"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A98:H98"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="E100:H100"/>
-    <mergeCell ref="A95:H95"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A101:H101"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E103:H103"/>
-    <mergeCell ref="A104:H104"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="E106:H106"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A85:H85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="F86:H86"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A88:H88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:H89"/>
-    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="67" max="7" man="1"/>
+    <brk id="70" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -12360,10 +12397,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="154" t="s">
         <v>117</v>
       </c>
@@ -12374,52 +12411,52 @@
       <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="156" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="183"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="F4" s="183"/>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="165"/>
-      <c r="F5" s="165"/>
-      <c r="G5" s="165"/>
-      <c r="H5" s="165"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="154" t="s">
@@ -12434,16 +12471,16 @@
       <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="154" t="s">
@@ -12458,71 +12495,71 @@
       <c r="H8" s="154"/>
     </row>
     <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="181"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181"/>
-      <c r="D11" s="181"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="182"/>
-      <c r="C12" s="182"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="182"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="153"/>
       <c r="D14" s="154" t="s">
         <v>47</v>
       </c>
@@ -12535,13 +12572,13 @@
       <c r="A15" s="46"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="155" t="s">
+      <c r="D15" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="154" t="s">
@@ -12556,16 +12593,16 @@
       <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="154" t="s">
@@ -12580,25 +12617,25 @@
       <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="165" t="s">
+      <c r="A20" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="153"/>
       <c r="F20" s="48" t="s">
         <v>77</v>
       </c>
@@ -12607,15 +12644,15 @@
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="154" t="s">
@@ -12630,16 +12667,16 @@
       <c r="H22" s="154"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="155" t="s">
+      <c r="A23" s="157" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="154" t="s">
@@ -12654,48 +12691,48 @@
       <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="177" t="s">
+      <c r="A27" s="163" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="177"/>
-      <c r="E27" s="177"/>
-      <c r="F27" s="177"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="177"/>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="178" t="e">
+      <c r="A28" s="164" t="e">
         <f>"№"&amp;#REF!&amp;".1"</f>
         <v>#REF!</v>
       </c>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
@@ -12718,16 +12755,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
@@ -12744,16 +12781,16 @@
       <c r="H31" s="154"/>
     </row>
     <row r="32" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="154" t="s">
@@ -12768,16 +12805,16 @@
       <c r="H33" s="154"/>
     </row>
     <row r="34" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155" t="s">
+      <c r="A34" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="155"/>
-      <c r="C34" s="155"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="155"/>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="154" t="s">
@@ -12792,16 +12829,16 @@
       <c r="H35" s="154"/>
     </row>
     <row r="36" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="155" t="s">
+      <c r="A36" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="155"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="157"/>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154" t="s">
@@ -12816,24 +12853,24 @@
       <c r="H37" s="154"/>
     </row>
     <row r="38" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="155" t="s">
+      <c r="A38" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="157"/>
+      <c r="H38" s="157"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
       <c r="E39" s="154" t="s">
         <v>110</v>
       </c>
@@ -12866,28 +12903,28 @@
       <c r="H41" s="154"/>
     </row>
     <row r="42" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="155" t="s">
+      <c r="A42" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="155"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="157"/>
+      <c r="F42" s="157"/>
+      <c r="G42" s="157"/>
+      <c r="H42" s="157"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
+      <c r="B43" s="167"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="167"/>
     </row>
     <row r="44" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="154" t="s">
@@ -12902,16 +12939,16 @@
       <c r="H44" s="154"/>
     </row>
     <row r="45" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="174" t="s">
+      <c r="A45" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="175"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="175"/>
-      <c r="E45" s="175"/>
-      <c r="F45" s="175"/>
-      <c r="G45" s="175"/>
-      <c r="H45" s="175"/>
+      <c r="B45" s="169"/>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="169"/>
     </row>
     <row r="46" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="154" t="s">
@@ -12926,16 +12963,16 @@
       <c r="H46" s="154"/>
     </row>
     <row r="47" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="155" t="s">
+      <c r="A47" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="155"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
     </row>
     <row r="48" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="154" t="s">
@@ -12950,28 +12987,28 @@
       <c r="H48" s="154"/>
     </row>
     <row r="49" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="155" t="s">
+      <c r="A49" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="155"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="155"/>
-      <c r="H49" s="155"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
     </row>
     <row r="50" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="156" t="s">
+      <c r="A50" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
+      <c r="B50" s="167"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="167"/>
     </row>
     <row r="51" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="154" t="s">
@@ -12986,76 +13023,76 @@
       <c r="H51" s="154"/>
     </row>
     <row r="52" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="173" t="s">
+      <c r="A52" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="173"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
-      <c r="H52" s="173"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
     </row>
     <row r="53" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="172" t="s">
+      <c r="A53" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="172"/>
-      <c r="C53" s="172"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="172"/>
-      <c r="H53" s="172"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
     </row>
     <row r="54" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="173" t="s">
+      <c r="A54" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="173"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
     </row>
     <row r="55" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="172" t="s">
+      <c r="A55" s="171" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="172"/>
-      <c r="C55" s="172"/>
-      <c r="D55" s="172"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="172"/>
-      <c r="G55" s="172"/>
-      <c r="H55" s="172"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="155" t="s">
+      <c r="A56" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="155"/>
-      <c r="C56" s="155"/>
-      <c r="D56" s="155"/>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="157"/>
     </row>
     <row r="57" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="165" t="s">
+      <c r="A57" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="165"/>
-      <c r="F57" s="165"/>
-      <c r="G57" s="165"/>
-      <c r="H57" s="165"/>
+      <c r="B57" s="153"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
     </row>
     <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="154" t="s">
@@ -13070,16 +13107,16 @@
       <c r="H58" s="154"/>
     </row>
     <row r="59" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="155" t="s">
+      <c r="A59" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="155"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="154" t="s">
@@ -13094,25 +13131,25 @@
       <c r="H60" s="154"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="155" t="s">
+      <c r="A61" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="155"/>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
     </row>
     <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="156" t="s">
+      <c r="A62" s="167" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="156"/>
-      <c r="C62" s="156"/>
-      <c r="D62" s="156"/>
-      <c r="E62" s="156"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
       <c r="F62" s="154" t="s">
         <v>120</v>
       </c>
@@ -13120,47 +13157,47 @@
       <c r="H62" s="154"/>
     </row>
     <row r="63" spans="1:8" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="170" t="s">
+      <c r="A63" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="170"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170"/>
-      <c r="G63" s="170"/>
-      <c r="H63" s="170"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="155"/>
+      <c r="D63" s="155"/>
+      <c r="E63" s="155"/>
+      <c r="F63" s="155"/>
+      <c r="G63" s="155"/>
+      <c r="H63" s="155"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="168" t="s">
+      <c r="A64" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="168"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="168"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
     </row>
     <row r="65" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="155" t="s">
+      <c r="A65" s="157" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="155"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="155"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="157"/>
+      <c r="H65" s="157"/>
     </row>
     <row r="66" spans="1:8" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="156"/>
-      <c r="C66" s="156"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="167"/>
       <c r="D66" s="154" t="s">
         <v>79</v>
       </c>
@@ -13173,58 +13210,58 @@
       <c r="A67" s="54"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
-      <c r="D67" s="155" t="s">
+      <c r="D67" s="157" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="155"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="155"/>
-      <c r="H67" s="155"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
     </row>
     <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="171" t="s">
+      <c r="A68" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="171"/>
-      <c r="C68" s="171"/>
-      <c r="D68" s="171"/>
-      <c r="E68" s="171"/>
+      <c r="B68" s="172"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
       <c r="F68" s="154"/>
       <c r="G68" s="154"/>
       <c r="H68" s="154"/>
     </row>
     <row r="69" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="168" t="e">
+      <c r="A69" s="156" t="e">
         <f>CONCATENATE("Армирование в опалубке ",RIGHT(#REF!, LEN(#REF!)- SEARCH(" ",#REF!)))</f>
         <v>#REF!</v>
       </c>
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="156"/>
     </row>
     <row r="70" spans="1:8" s="54" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="155" t="s">
+      <c r="A70" s="157" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="155"/>
-      <c r="C70" s="155"/>
-      <c r="D70" s="155"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="155"/>
+      <c r="B70" s="157"/>
+      <c r="C70" s="157"/>
+      <c r="D70" s="157"/>
+      <c r="E70" s="157"/>
+      <c r="F70" s="157"/>
+      <c r="G70" s="157"/>
+      <c r="H70" s="157"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="156" t="s">
+      <c r="A71" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
-      <c r="D71" s="156"/>
+      <c r="B71" s="167"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
       <c r="E71" s="154"/>
       <c r="F71" s="154"/>
       <c r="G71" s="154"/>
@@ -13244,126 +13281,126 @@
       <c r="H72" s="154"/>
     </row>
     <row r="73" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="163" t="s">
+      <c r="A73" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="163"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="163"/>
-      <c r="F73" s="163"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
+      <c r="B73" s="166"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="166"/>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="156" t="s">
+      <c r="A74" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="156"/>
-      <c r="D74" s="156"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="156"/>
+      <c r="B74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="169" t="e">
+      <c r="A75" s="177" t="e">
         <f>"Материалы согласно реестру "&amp;A28&amp;" от "&amp;TEXT(C81,"ДД.ММ.ГГГГ")&amp;"г."</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="169"/>
-      <c r="C75" s="169"/>
-      <c r="D75" s="169"/>
-      <c r="E75" s="169"/>
-      <c r="F75" s="169"/>
-      <c r="G75" s="169"/>
-      <c r="H75" s="169"/>
+      <c r="B75" s="177"/>
+      <c r="C75" s="177"/>
+      <c r="D75" s="177"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="177"/>
     </row>
     <row r="76" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="163" t="s">
+      <c r="A76" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="163"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="163"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="163"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
+      <c r="E76" s="166"/>
+      <c r="F76" s="166"/>
+      <c r="G76" s="166"/>
+      <c r="H76" s="166"/>
     </row>
     <row r="77" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="156" t="s">
+      <c r="A77" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="156"/>
-      <c r="C77" s="156"/>
-      <c r="D77" s="156"/>
-      <c r="E77" s="156"/>
-      <c r="F77" s="156"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="156"/>
+      <c r="B77" s="167"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
+      <c r="E77" s="167"/>
+      <c r="F77" s="167"/>
+      <c r="G77" s="167"/>
+      <c r="H77" s="167"/>
     </row>
     <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162" t="e">
+      <c r="A78" s="176" t="e">
         <f>"Исполнительная схема "&amp;A28&amp;" от "&amp;TEXT(#REF!,"ДД.ММ.ГГГГ")&amp;"г."</f>
         <v>#REF!</v>
       </c>
-      <c r="B78" s="162"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="162"/>
-      <c r="E78" s="162"/>
-      <c r="F78" s="162"/>
-      <c r="G78" s="162"/>
-      <c r="H78" s="162"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="176"/>
+      <c r="E78" s="176"/>
+      <c r="F78" s="176"/>
+      <c r="G78" s="176"/>
+      <c r="H78" s="176"/>
     </row>
     <row r="79" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="155" t="s">
+      <c r="A79" s="157" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="155"/>
-      <c r="C79" s="155"/>
-      <c r="D79" s="155"/>
-      <c r="E79" s="155"/>
-      <c r="F79" s="155"/>
-      <c r="G79" s="155"/>
-      <c r="H79" s="155"/>
+      <c r="B79" s="157"/>
+      <c r="C79" s="157"/>
+      <c r="D79" s="157"/>
+      <c r="E79" s="157"/>
+      <c r="F79" s="157"/>
+      <c r="G79" s="157"/>
+      <c r="H79" s="157"/>
     </row>
     <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="166" t="s">
+      <c r="A80" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="166"/>
-      <c r="C80" s="167" t="e">
+      <c r="B80" s="174"/>
+      <c r="C80" s="175" t="e">
         <f>#REF!-4</f>
         <v>#REF!</v>
       </c>
-      <c r="D80" s="167"/>
-      <c r="E80" s="167"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
       <c r="F80" s="43"/>
       <c r="G80" s="43"/>
       <c r="H80" s="43"/>
     </row>
     <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="166" t="s">
+      <c r="A81" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="B81" s="166"/>
-      <c r="C81" s="167" t="e">
+      <c r="B81" s="174"/>
+      <c r="C81" s="175" t="e">
         <f>#REF!-1</f>
         <v>#REF!</v>
       </c>
-      <c r="D81" s="167"/>
-      <c r="E81" s="167"/>
+      <c r="D81" s="175"/>
+      <c r="E81" s="175"/>
       <c r="F81" s="43"/>
       <c r="G81" s="43"/>
       <c r="H81" s="43"/>
     </row>
     <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
+      <c r="B82" s="167"/>
+      <c r="C82" s="167"/>
       <c r="D82" s="154" t="s">
         <v>72</v>
       </c>
@@ -13385,28 +13422,28 @@
       <c r="H83" s="154"/>
     </row>
     <row r="84" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="155" t="s">
+      <c r="A84" s="157" t="s">
         <v>63</v>
       </c>
-      <c r="B84" s="155"/>
-      <c r="C84" s="155"/>
-      <c r="D84" s="155"/>
-      <c r="E84" s="155"/>
-      <c r="F84" s="155"/>
-      <c r="G84" s="155"/>
-      <c r="H84" s="155"/>
+      <c r="B84" s="157"/>
+      <c r="C84" s="157"/>
+      <c r="D84" s="157"/>
+      <c r="E84" s="157"/>
+      <c r="F84" s="157"/>
+      <c r="G84" s="157"/>
+      <c r="H84" s="157"/>
     </row>
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="156" t="s">
+      <c r="A85" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="156"/>
-      <c r="C85" s="156"/>
-      <c r="D85" s="156"/>
-      <c r="E85" s="156"/>
-      <c r="F85" s="157"/>
-      <c r="G85" s="157"/>
-      <c r="H85" s="157"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="173"/>
+      <c r="G85" s="173"/>
+      <c r="H85" s="173"/>
     </row>
     <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="154" t="s">
@@ -13421,48 +13458,48 @@
       <c r="H86" s="154"/>
     </row>
     <row r="87" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="155" t="s">
+      <c r="A87" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="155"/>
-      <c r="C87" s="155"/>
-      <c r="D87" s="155"/>
-      <c r="E87" s="155"/>
-      <c r="F87" s="155"/>
-      <c r="G87" s="155"/>
-      <c r="H87" s="155"/>
+      <c r="B87" s="157"/>
+      <c r="C87" s="157"/>
+      <c r="D87" s="157"/>
+      <c r="E87" s="157"/>
+      <c r="F87" s="157"/>
+      <c r="G87" s="157"/>
+      <c r="H87" s="157"/>
     </row>
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="156" t="s">
+      <c r="A88" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="B88" s="156"/>
-      <c r="C88" s="158" t="e">
+      <c r="B88" s="167"/>
+      <c r="C88" s="182" t="e">
         <f xml:space="preserve"> IF(#REF!=0, "","Учетный лист №б/н от "&amp;TEXT(#REF!,"ДД.ММ.ГГГГ")&amp;"г.")</f>
         <v>#REF!</v>
       </c>
-      <c r="D88" s="158"/>
-      <c r="E88" s="158"/>
-      <c r="F88" s="158"/>
-      <c r="G88" s="158"/>
-      <c r="H88" s="158"/>
+      <c r="D88" s="182"/>
+      <c r="E88" s="182"/>
+      <c r="F88" s="182"/>
+      <c r="G88" s="182"/>
+      <c r="H88" s="182"/>
     </row>
     <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="159"/>
-      <c r="B89" s="159"/>
-      <c r="C89" s="159"/>
-      <c r="D89" s="159"/>
-      <c r="E89" s="159"/>
-      <c r="F89" s="159"/>
-      <c r="G89" s="159"/>
-      <c r="H89" s="159"/>
+      <c r="A89" s="183"/>
+      <c r="B89" s="183"/>
+      <c r="C89" s="183"/>
+      <c r="D89" s="183"/>
+      <c r="E89" s="183"/>
+      <c r="F89" s="183"/>
+      <c r="G89" s="183"/>
+      <c r="H89" s="183"/>
     </row>
     <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="160" t="s">
+      <c r="A90" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B90" s="160"/>
-      <c r="C90" s="160"/>
+      <c r="B90" s="179"/>
+      <c r="C90" s="179"/>
       <c r="D90" s="50"/>
       <c r="E90" s="50"/>
       <c r="F90" s="50"/>
@@ -13472,76 +13509,76 @@
       <c r="A91" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="161"/>
-      <c r="C91" s="161"/>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="161"/>
+      <c r="B91" s="180"/>
+      <c r="C91" s="180"/>
+      <c r="D91" s="180"/>
+      <c r="E91" s="180"/>
+      <c r="F91" s="180"/>
       <c r="G91" s="58"/>
       <c r="H91" s="58"/>
     </row>
     <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="162" t="e">
+      <c r="A92" s="176" t="e">
         <f>A78</f>
         <v>#REF!</v>
       </c>
-      <c r="B92" s="162"/>
-      <c r="C92" s="162"/>
-      <c r="D92" s="162"/>
-      <c r="E92" s="162"/>
-      <c r="F92" s="162"/>
-      <c r="G92" s="162"/>
-      <c r="H92" s="162"/>
+      <c r="B92" s="176"/>
+      <c r="C92" s="176"/>
+      <c r="D92" s="176"/>
+      <c r="E92" s="176"/>
+      <c r="F92" s="176"/>
+      <c r="G92" s="176"/>
+      <c r="H92" s="176"/>
     </row>
     <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="162" t="e">
+      <c r="A93" s="176" t="e">
         <f>"Реестр "&amp;A28&amp;" от "&amp;TEXT(C81,"ДД.ММ.ГГГГ")&amp;"г."</f>
         <v>#REF!</v>
       </c>
-      <c r="B93" s="162"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="162"/>
-      <c r="E93" s="162"/>
-      <c r="F93" s="162"/>
-      <c r="G93" s="162"/>
-      <c r="H93" s="162"/>
+      <c r="B93" s="176"/>
+      <c r="C93" s="176"/>
+      <c r="D93" s="176"/>
+      <c r="E93" s="176"/>
+      <c r="F93" s="176"/>
+      <c r="G93" s="176"/>
+      <c r="H93" s="176"/>
     </row>
     <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="162" t="e">
+      <c r="A94" s="176" t="e">
         <f>C88</f>
         <v>#REF!</v>
       </c>
-      <c r="B94" s="162"/>
-      <c r="C94" s="162"/>
-      <c r="D94" s="162"/>
-      <c r="E94" s="162"/>
-      <c r="F94" s="162"/>
-      <c r="G94" s="162"/>
-      <c r="H94" s="162"/>
+      <c r="B94" s="176"/>
+      <c r="C94" s="176"/>
+      <c r="D94" s="176"/>
+      <c r="E94" s="176"/>
+      <c r="F94" s="176"/>
+      <c r="G94" s="176"/>
+      <c r="H94" s="176"/>
     </row>
     <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="163" t="s">
+      <c r="A95" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="163"/>
-      <c r="C95" s="163"/>
-      <c r="D95" s="163"/>
-      <c r="E95" s="163"/>
-      <c r="F95" s="163"/>
-      <c r="G95" s="163"/>
-      <c r="H95" s="163"/>
+      <c r="B95" s="166"/>
+      <c r="C95" s="166"/>
+      <c r="D95" s="166"/>
+      <c r="E95" s="166"/>
+      <c r="F95" s="166"/>
+      <c r="G95" s="166"/>
+      <c r="H95" s="166"/>
     </row>
     <row r="96" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="156" t="s">
+      <c r="A96" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="B96" s="156"/>
-      <c r="C96" s="156"/>
-      <c r="D96" s="156"/>
-      <c r="E96" s="156"/>
-      <c r="F96" s="156"/>
-      <c r="G96" s="156"/>
-      <c r="H96" s="156"/>
+      <c r="B96" s="167"/>
+      <c r="C96" s="167"/>
+      <c r="D96" s="167"/>
+      <c r="E96" s="167"/>
+      <c r="F96" s="167"/>
+      <c r="G96" s="167"/>
+      <c r="H96" s="167"/>
     </row>
     <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
@@ -13550,11 +13587,11 @@
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
       <c r="D97" s="60"/>
-      <c r="E97" s="153" t="s">
+      <c r="E97" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="F97" s="153"/>
-      <c r="G97" s="153"/>
+      <c r="F97" s="178"/>
+      <c r="G97" s="178"/>
       <c r="H97" s="60"/>
     </row>
     <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13562,35 +13599,35 @@
       <c r="B98" s="57"/>
       <c r="C98" s="57"/>
       <c r="D98" s="57"/>
-      <c r="E98" s="155" t="s">
+      <c r="E98" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F98" s="155"/>
-      <c r="G98" s="155"/>
-      <c r="H98" s="155"/>
+      <c r="F98" s="157"/>
+      <c r="G98" s="157"/>
+      <c r="H98" s="157"/>
     </row>
     <row r="99" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="156" t="s">
+      <c r="A99" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="B99" s="156"/>
-      <c r="C99" s="156"/>
-      <c r="D99" s="156"/>
-      <c r="E99" s="156"/>
-      <c r="F99" s="156"/>
-      <c r="G99" s="156"/>
-      <c r="H99" s="156"/>
+      <c r="B99" s="167"/>
+      <c r="C99" s="167"/>
+      <c r="D99" s="167"/>
+      <c r="E99" s="167"/>
+      <c r="F99" s="167"/>
+      <c r="G99" s="167"/>
+      <c r="H99" s="167"/>
     </row>
     <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="60"/>
       <c r="B100" s="60"/>
       <c r="C100" s="60"/>
       <c r="D100" s="60"/>
-      <c r="E100" s="153" t="s">
+      <c r="E100" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="F100" s="153"/>
-      <c r="G100" s="153"/>
+      <c r="F100" s="178"/>
+      <c r="G100" s="178"/>
       <c r="H100" s="60"/>
     </row>
     <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13598,37 +13635,37 @@
       <c r="B101" s="57"/>
       <c r="C101" s="57"/>
       <c r="D101" s="57"/>
-      <c r="E101" s="155" t="s">
+      <c r="E101" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F101" s="155"/>
-      <c r="G101" s="155"/>
-      <c r="H101" s="155"/>
+      <c r="F101" s="157"/>
+      <c r="G101" s="157"/>
+      <c r="H101" s="157"/>
     </row>
     <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="165" t="s">
+      <c r="A102" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="165"/>
-      <c r="C102" s="165"/>
-      <c r="D102" s="165"/>
-      <c r="E102" s="165"/>
-      <c r="F102" s="165"/>
-      <c r="G102" s="165"/>
-      <c r="H102" s="165"/>
+      <c r="B102" s="153"/>
+      <c r="C102" s="153"/>
+      <c r="D102" s="153"/>
+      <c r="E102" s="153"/>
+      <c r="F102" s="153"/>
+      <c r="G102" s="153"/>
+      <c r="H102" s="153"/>
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="165" t="s">
+      <c r="A103" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="B103" s="165"/>
-      <c r="C103" s="165"/>
+      <c r="B103" s="153"/>
+      <c r="C103" s="153"/>
       <c r="D103" s="60"/>
-      <c r="E103" s="153" t="s">
+      <c r="E103" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F103" s="153"/>
-      <c r="G103" s="153"/>
+      <c r="F103" s="178"/>
+      <c r="G103" s="178"/>
       <c r="H103" s="61"/>
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13636,35 +13673,35 @@
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
       <c r="D104" s="57"/>
-      <c r="E104" s="155" t="s">
+      <c r="E104" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F104" s="155"/>
-      <c r="G104" s="155"/>
-      <c r="H104" s="155"/>
+      <c r="F104" s="157"/>
+      <c r="G104" s="157"/>
+      <c r="H104" s="157"/>
     </row>
     <row r="105" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="156" t="s">
+      <c r="A105" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B105" s="156"/>
-      <c r="C105" s="156"/>
-      <c r="D105" s="156"/>
-      <c r="E105" s="156"/>
-      <c r="F105" s="156"/>
-      <c r="G105" s="156"/>
-      <c r="H105" s="156"/>
+      <c r="B105" s="167"/>
+      <c r="C105" s="167"/>
+      <c r="D105" s="167"/>
+      <c r="E105" s="167"/>
+      <c r="F105" s="167"/>
+      <c r="G105" s="167"/>
+      <c r="H105" s="167"/>
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="60"/>
       <c r="B106" s="60"/>
       <c r="C106" s="60"/>
       <c r="D106" s="60"/>
-      <c r="E106" s="153" t="s">
+      <c r="E106" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="F106" s="153"/>
-      <c r="G106" s="153"/>
+      <c r="F106" s="178"/>
+      <c r="G106" s="178"/>
       <c r="H106" s="60"/>
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13672,35 +13709,35 @@
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
       <c r="D107" s="57"/>
-      <c r="E107" s="155" t="s">
+      <c r="E107" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F107" s="155"/>
-      <c r="G107" s="155"/>
-      <c r="H107" s="155"/>
+      <c r="F107" s="157"/>
+      <c r="G107" s="157"/>
+      <c r="H107" s="157"/>
     </row>
     <row r="108" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="156" t="s">
+      <c r="A108" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="B108" s="156"/>
-      <c r="C108" s="156"/>
-      <c r="D108" s="156"/>
-      <c r="E108" s="156"/>
-      <c r="F108" s="156"/>
-      <c r="G108" s="156"/>
-      <c r="H108" s="156"/>
+      <c r="B108" s="167"/>
+      <c r="C108" s="167"/>
+      <c r="D108" s="167"/>
+      <c r="E108" s="167"/>
+      <c r="F108" s="167"/>
+      <c r="G108" s="167"/>
+      <c r="H108" s="167"/>
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="60"/>
       <c r="B109" s="60"/>
       <c r="C109" s="60"/>
       <c r="D109" s="60"/>
-      <c r="E109" s="153" t="s">
+      <c r="E109" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="F109" s="153"/>
-      <c r="G109" s="153"/>
+      <c r="F109" s="178"/>
+      <c r="G109" s="178"/>
       <c r="H109" s="60"/>
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13708,12 +13745,12 @@
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
-      <c r="E110" s="155" t="s">
+      <c r="E110" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F110" s="155"/>
-      <c r="G110" s="155"/>
-      <c r="H110" s="155"/>
+      <c r="F110" s="157"/>
+      <c r="G110" s="157"/>
+      <c r="H110" s="157"/>
     </row>
     <row r="111" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="55" t="s">
@@ -13722,11 +13759,11 @@
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
-      <c r="E111" s="153" t="s">
+      <c r="E111" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="F111" s="153"/>
-      <c r="G111" s="153"/>
+      <c r="F111" s="178"/>
+      <c r="G111" s="178"/>
       <c r="H111" s="45"/>
     </row>
     <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -13734,81 +13771,61 @@
       <c r="B112" s="57"/>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
-      <c r="E112" s="155" t="s">
+      <c r="E112" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="F112" s="155"/>
-      <c r="G112" s="155"/>
-      <c r="H112" s="155"/>
+      <c r="F112" s="157"/>
+      <c r="G112" s="157"/>
+      <c r="H112" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="E107:H107"/>
+    <mergeCell ref="A108:H108"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="E110:H110"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="E112:H112"/>
+    <mergeCell ref="A102:H102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="A105:H105"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A96:H96"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="E98:H98"/>
+    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="E101:H101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:H82"/>
+    <mergeCell ref="A83:H83"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A78:H78"/>
     <mergeCell ref="A69:H69"/>
     <mergeCell ref="A70:H70"/>
     <mergeCell ref="A71:D71"/>
@@ -13822,52 +13839,72 @@
     <mergeCell ref="D67:H67"/>
     <mergeCell ref="A68:E68"/>
     <mergeCell ref="F68:H68"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A95:H95"/>
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="E110:H110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="E112:H112"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Шаблон.xlsx
+++ b/Шаблон.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D1A81F-DBAA-4849-9D50-3D93B347A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6CDD7-0FB6-47A7-B583-E2CBF78B038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="414" firstSheet="2" activeTab="2" xr2:uid="{A55FFE0D-A6D8-4D84-B615-F23C27029847}"/>
   </bookViews>
@@ -16,19 +16,14 @@
     <sheet name="-1-" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="-2-" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="АОСР бетон" sheetId="44" r:id="rId3"/>
-    <sheet name="АОСР армир" sheetId="47" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK1" localSheetId="3">#N/A</definedName>
     <definedName name="OLE_LINK1" localSheetId="2">#N/A</definedName>
     <definedName name="OLE_LINK1">#N/A</definedName>
-    <definedName name="sub_1408" localSheetId="3">#N/A</definedName>
     <definedName name="sub_1408" localSheetId="2">#N/A</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#N/A</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#N/A</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'АОСР армир'!$A$1:$H$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'АОСР бетон'!$A$1:$H$118</definedName>
-    <definedName name="проводки" localSheetId="3">#N/A</definedName>
     <definedName name="проводки" localSheetId="2">#N/A</definedName>
     <definedName name="проводки">#N/A</definedName>
   </definedNames>
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="138">
   <si>
     <t>Приложения:</t>
   </si>
@@ -1233,75 +1228,6 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1367,6 +1293,21 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1445,6 +1386,105 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="12" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1454,68 +1494,89 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1523,73 +1584,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9522,14 +9517,14 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="76" t="e">
+      <c r="H1" s="117" t="e">
         <f>CONCATENATE(#REF!, ,#REF!,#REF!, ,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
@@ -9562,18 +9557,18 @@
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
-      <c r="F6" s="80" t="e">
+      <c r="F6" s="121" t="e">
         <f>#REF!+#REF!-0.5</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="80"/>
+      <c r="G6" s="121"/>
       <c r="H6" s="16"/>
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
@@ -9589,11 +9584,11 @@
       <c r="G7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="80" t="e">
+      <c r="K7" s="121" t="e">
         <f>B7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="122"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -9601,194 +9596,194 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="I9" s="69" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="86"/>
+      <c r="I9" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="29"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="29"/>
       <c r="F11" s="28"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="21"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="G12" s="19"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
       <c r="K13" s="27"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="26"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
       <c r="K14" s="21"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
       <c r="K15" s="21"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70" t="e">
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="129" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="71"/>
+      <c r="L16" s="130"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="25"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
       <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17"/>
-      <c r="I18" s="103" t="e">
+      <c r="I18" s="80" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J18" s="104"/>
+      <c r="J18" s="81"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="106"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="106"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="21"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="127"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="88"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="83"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="88"/>
     </row>
     <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="106"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="G25" s="20"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="106"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="83"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="83"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="86"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="88"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="106"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="83"/>
       <c r="K27" s="19"/>
       <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="106"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="83"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
-      <c r="F29" s="89" t="e">
+      <c r="F29" s="66" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="89"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="84" t="e">
+      <c r="G29" s="66"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="89" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="85"/>
+      <c r="L29" s="90"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="108"/>
+      <c r="B30" s="64"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -9799,11 +9794,11 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D31" s="88" t="e">
+      <c r="D31" s="65" t="e">
         <f>CONCATENATE(#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="65"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -9888,58 +9883,58 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="92"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="102"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="79"/>
     </row>
     <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="120" t="s">
+      <c r="E48" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="122"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="104"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="125"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="107"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -9954,14 +9949,14 @@
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="128"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="110"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -9976,20 +9971,20 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="120" t="s">
+      <c r="E51" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="129"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="111"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="132" t="s">
+      <c r="K51" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="133"/>
+      <c r="L51" s="115"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -10004,80 +9999,97 @@
         <f>D51</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="123"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="63" t="s">
+      <c r="E52" s="105"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="118"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="73"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="132"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="75"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="134"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="109" t="e">
+      <c r="E54" s="91" t="e">
         <f xml:space="preserve"> CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="90" t="s">
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="92"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="112"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="95"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="72"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="98"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="I9:J17"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K52:L53"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F28:H28"/>
@@ -10094,23 +10106,6 @@
     <mergeCell ref="E51:H53"/>
     <mergeCell ref="K51:L51"/>
     <mergeCell ref="F27:H27"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="I9:J17"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K17:L17"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -10150,19 +10145,19 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
-      <c r="H1" s="76" t="e">
+      <c r="H1" s="117" t="e">
         <f>CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="77"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="118"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10170,10 +10165,10 @@
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="83"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="32"/>
       <c r="I3" s="35"/>
       <c r="J3" s="32"/>
@@ -10182,11 +10177,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
-      <c r="E4" s="136" t="e">
+      <c r="E4" s="151" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F4" s="136"/>
+      <c r="F4" s="151"/>
       <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
@@ -10198,21 +10193,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="E5" s="136" t="e">
+      <c r="E5" s="151" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F5" s="88"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="79"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -10226,11 +10221,11 @@
       <c r="B7" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="K7" s="80" t="e">
+      <c r="K7" s="121" t="e">
         <f>B7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="81"/>
+      <c r="L7" s="122"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
@@ -10238,18 +10233,18 @@
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="G9" s="136" t="e">
+      <c r="A9" s="123"/>
+      <c r="B9" s="86"/>
+      <c r="G9" s="151" t="e">
         <v>#REF!</v>
       </c>
-      <c r="H9" s="137"/>
-      <c r="I9" s="135" t="s">
+      <c r="H9" s="152"/>
+      <c r="I9" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="135"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
@@ -10257,146 +10252,146 @@
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="17"/>
       <c r="F11" s="28"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
       <c r="K11" s="21"/>
       <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="G12" s="19"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="16"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
       <c r="K13" s="27"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="26"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="150"/>
       <c r="K14" s="21"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
       <c r="K15" s="21"/>
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="70" t="e">
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="129" t="e">
         <v>#REF!</v>
       </c>
-      <c r="L16" s="71"/>
+      <c r="L16" s="130"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="25"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="17"/>
-      <c r="I18" s="138" t="e">
+      <c r="I18" s="144" t="e">
         <v>#REF!</v>
       </c>
-      <c r="J18" s="139"/>
+      <c r="J18" s="145"/>
       <c r="K18" s="23"/>
       <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="88"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
       <c r="K20" s="21"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="127"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="66"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="86"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="88"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="21"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="66"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="88"/>
     </row>
     <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="21"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
       <c r="L25" s="14"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="88"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
       <c r="K27" s="19"/>
       <c r="L27" s="14"/>
     </row>
@@ -10408,13 +10403,13 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
       <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -10427,21 +10422,21 @@
       <c r="G29" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="84" t="e">
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="89" t="e">
         <f>B32</f>
         <v>#REF!</v>
       </c>
-      <c r="L29" s="85"/>
+      <c r="L29" s="90"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="86" t="s">
+      <c r="A30" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="143"/>
+      <c r="B30" s="64"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="149"/>
       <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -10451,10 +10446,10 @@
       <c r="B31" s="19" t="e">
         <v>#REF!</v>
       </c>
-      <c r="D31" s="83" t="e">
+      <c r="D31" s="86" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="86"/>
       <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -10526,58 +10521,58 @@
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="92"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="102"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="79"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="120" t="s">
+      <c r="E48" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="122"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
+      <c r="K48" s="103"/>
+      <c r="L48" s="104"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="125"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="107"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
@@ -10592,14 +10587,14 @@
       <c r="D50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="126"/>
-      <c r="F50" s="127"/>
-      <c r="G50" s="127"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="127"/>
-      <c r="J50" s="127"/>
-      <c r="K50" s="127"/>
-      <c r="L50" s="128"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="109"/>
+      <c r="L50" s="110"/>
     </row>
     <row r="51" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
@@ -10613,22 +10608,22 @@
       <c r="D51" s="7" t="e">
         <v>#REF!</v>
       </c>
-      <c r="E51" s="120" t="s">
+      <c r="E51" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="129"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="111"/>
       <c r="I51" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="132" t="s">
+      <c r="K51" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="133"/>
+      <c r="L51" s="115"/>
     </row>
     <row r="52" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
@@ -10642,94 +10637,90 @@
         <f>D51</f>
         <v>#REF!</v>
       </c>
-      <c r="E52" s="123"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="63" t="s">
+      <c r="E52" s="105"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="118"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="73"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="132"/>
     </row>
     <row r="53" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="75"/>
+      <c r="E53" s="108"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="134"/>
     </row>
     <row r="54" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="144" t="e">
+      <c r="E54" s="135" t="e">
         <f xml:space="preserve"> CONCATENATE(#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="90" t="s">
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="92"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="95"/>
+      <c r="E55" s="138"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="72"/>
     </row>
     <row r="56" spans="1:12" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="150"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="98"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E54:H56"/>
-    <mergeCell ref="I54:L56"/>
-    <mergeCell ref="E48:L50"/>
-    <mergeCell ref="E51:H53"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:L53"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I9:J17"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="E46:L47"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
@@ -10743,16 +10734,20 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="I18:J30"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I9:J17"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="E54:H56"/>
+    <mergeCell ref="I54:L56"/>
+    <mergeCell ref="E48:L50"/>
+    <mergeCell ref="E51:H53"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:L53"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
@@ -10767,8 +10762,8 @@
   </sheetPr>
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85:H85"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10785,10 +10780,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="165"/>
       <c r="C1" s="154" t="s">
         <v>117</v>
       </c>
@@ -10799,52 +10794,52 @@
       <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="170" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="183"/>
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="154" t="s">
@@ -10859,16 +10854,16 @@
       <c r="H6" s="154"/>
     </row>
     <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="154" t="s">
@@ -10883,71 +10878,71 @@
       <c r="H8" s="154"/>
     </row>
     <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="182" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
+      <c r="B10" s="182"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
     </row>
     <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160" t="s">
+      <c r="A12" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
+      <c r="A13" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="153" t="s">
+      <c r="A14" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
       <c r="D14" s="154" t="s">
         <v>47</v>
       </c>
@@ -10960,13 +10955,13 @@
       <c r="A15" s="46"/>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="157" t="s">
+      <c r="D15" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="154" t="s">
@@ -10981,16 +10976,16 @@
       <c r="H16" s="154"/>
     </row>
     <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
     </row>
     <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="154" t="s">
@@ -11005,25 +11000,25 @@
       <c r="H18" s="154"/>
     </row>
     <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="153" t="s">
+      <c r="A20" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
       <c r="F20" s="48" t="s">
         <v>77</v>
       </c>
@@ -11032,15 +11027,15 @@
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="161" t="s">
+      <c r="B21" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
     </row>
     <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="154" t="s">
@@ -11055,16 +11050,16 @@
       <c r="H22" s="154"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
     </row>
     <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="154" t="s">
@@ -11079,47 +11074,47 @@
       <c r="H24" s="154"/>
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="162" t="s">
+      <c r="A26" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
       <c r="D28" s="49"/>
       <c r="E28" s="49"/>
       <c r="F28" s="49"/>
@@ -11141,16 +11136,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="165" t="s">
+      <c r="A30" s="179" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
+      <c r="B30" s="179"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
     </row>
     <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
@@ -11167,16 +11162,16 @@
       <c r="H31" s="154"/>
     </row>
     <row r="32" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
+      <c r="A32" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="154" t="s">
@@ -11191,16 +11186,16 @@
       <c r="H33" s="154"/>
     </row>
     <row r="34" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
     </row>
     <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="154" t="s">
@@ -11215,16 +11210,16 @@
       <c r="H35" s="154"/>
     </row>
     <row r="36" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
     </row>
     <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="154" t="s">
@@ -11239,24 +11234,24 @@
       <c r="H37" s="154"/>
     </row>
     <row r="38" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="157" t="s">
+      <c r="A38" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
+      <c r="A39" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156"/>
       <c r="E39" s="154" t="s">
         <v>110</v>
       </c>
@@ -11289,28 +11284,28 @@
       <c r="H41" s="154"/>
     </row>
     <row r="42" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="167" t="s">
+      <c r="A43" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
     </row>
     <row r="44" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="154" t="s">
@@ -11325,16 +11320,16 @@
       <c r="H44" s="154"/>
     </row>
     <row r="45" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168" t="s">
+      <c r="A45" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="169"/>
+      <c r="B45" s="175"/>
+      <c r="C45" s="175"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
     </row>
     <row r="46" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="154" t="s">
@@ -11349,16 +11344,16 @@
       <c r="H46" s="154"/>
     </row>
     <row r="47" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="157" t="s">
+      <c r="A47" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
     </row>
     <row r="48" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="154" t="s">
@@ -11373,28 +11368,28 @@
       <c r="H48" s="154"/>
     </row>
     <row r="49" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="157" t="s">
+      <c r="A49" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="157"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
     </row>
     <row r="50" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="167" t="s">
+      <c r="A50" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
     </row>
     <row r="51" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="154" t="s">
@@ -11409,76 +11404,76 @@
       <c r="H51" s="154"/>
     </row>
     <row r="52" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="170" t="s">
+      <c r="A52" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
+      <c r="B52" s="173"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="173"/>
+      <c r="G52" s="173"/>
+      <c r="H52" s="173"/>
     </row>
     <row r="53" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="171" t="s">
+      <c r="A53" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="171"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
+      <c r="B53" s="172"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="172"/>
+      <c r="G53" s="172"/>
+      <c r="H53" s="172"/>
     </row>
     <row r="54" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="170" t="s">
+      <c r="A54" s="173" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
+      <c r="B54" s="173"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="173"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="173"/>
+      <c r="H54" s="173"/>
     </row>
     <row r="55" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="171" t="s">
+      <c r="A55" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="171"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
+      <c r="B55" s="172"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="172"/>
+      <c r="F55" s="172"/>
+      <c r="G55" s="172"/>
+      <c r="H55" s="172"/>
     </row>
     <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="157" t="s">
+      <c r="A56" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="157"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
     </row>
     <row r="57" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="153"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="165"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="165"/>
+      <c r="H57" s="165"/>
     </row>
     <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="154" t="s">
@@ -11493,16 +11488,16 @@
       <c r="H58" s="154"/>
     </row>
     <row r="59" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="157" t="s">
+      <c r="A59" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="157"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="155"/>
+      <c r="D59" s="155"/>
+      <c r="E59" s="155"/>
+      <c r="F59" s="155"/>
+      <c r="G59" s="155"/>
+      <c r="H59" s="155"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="154" t="s">
@@ -11517,25 +11512,25 @@
       <c r="H60" s="154"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="157" t="s">
+      <c r="A61" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="157"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="155"/>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
     </row>
     <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167" t="s">
+      <c r="A62" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="167"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
       <c r="F62" s="154" t="s">
         <v>120</v>
       </c>
@@ -11543,47 +11538,47 @@
       <c r="H62" s="154"/>
     </row>
     <row r="63" spans="1:8" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="155" t="s">
+      <c r="A63" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="B63" s="155"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="156" t="s">
+      <c r="A64" s="170" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="156"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
+      <c r="B64" s="170"/>
+      <c r="C64" s="170"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
     </row>
     <row r="65" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="157" t="s">
+      <c r="A65" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="155"/>
+      <c r="H65" s="155"/>
     </row>
     <row r="66" spans="1:8" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="167" t="s">
+      <c r="A66" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="167"/>
-      <c r="C66" s="167"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
       <c r="D66" s="154" t="s">
         <v>79</v>
       </c>
@@ -11596,57 +11591,57 @@
       <c r="A67" s="54"/>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
-      <c r="D67" s="157" t="s">
+      <c r="D67" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
+      <c r="E67" s="155"/>
+      <c r="F67" s="155"/>
+      <c r="G67" s="155"/>
+      <c r="H67" s="155"/>
     </row>
     <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="172" t="s">
+      <c r="A68" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="172"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
+      <c r="B68" s="171"/>
+      <c r="C68" s="171"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="171"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="157"/>
+      <c r="H68" s="157"/>
     </row>
     <row r="69" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="155" t="s">
+      <c r="A69" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="155"/>
-      <c r="C69" s="155"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
     </row>
     <row r="70" spans="1:8" s="54" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="166"/>
-      <c r="C70" s="166"/>
-      <c r="D70" s="166"/>
-      <c r="E70" s="166"/>
-      <c r="F70" s="166"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="166"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
+      <c r="E70" s="163"/>
+      <c r="F70" s="163"/>
+      <c r="G70" s="163"/>
+      <c r="H70" s="163"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="167" t="s">
+      <c r="A71" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="167"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
+      <c r="B71" s="156"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="156"/>
       <c r="E71" s="154"/>
       <c r="F71" s="154"/>
       <c r="G71" s="154"/>
@@ -11665,158 +11660,158 @@
       <c r="H72" s="154"/>
     </row>
     <row r="73" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="166" t="s">
+      <c r="A73" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="166"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="166"/>
-      <c r="G73" s="166"/>
-      <c r="H73" s="166"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="163"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="163"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="163"/>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="167" t="s">
+      <c r="A74" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
-      <c r="F74" s="167"/>
-      <c r="G74" s="167"/>
-      <c r="H74" s="167"/>
+      <c r="B74" s="156"/>
+      <c r="D74" s="156"/>
+      <c r="E74" s="156"/>
+      <c r="F74" s="156"/>
+      <c r="G74" s="156"/>
+      <c r="H74" s="156"/>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="177" t="s">
+      <c r="A75" s="169" t="s">
         <v>129</v>
       </c>
-      <c r="B75" s="177"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
+      <c r="B75" s="169"/>
+      <c r="C75" s="169"/>
+      <c r="D75" s="169"/>
+      <c r="E75" s="169"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="169"/>
+      <c r="H75" s="169"/>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="177" t="s">
+      <c r="A76" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="177"/>
-      <c r="C76" s="177"/>
-      <c r="D76" s="177"/>
-      <c r="E76" s="177"/>
-      <c r="F76" s="177"/>
-      <c r="G76" s="177"/>
-      <c r="H76" s="177"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="169"/>
+      <c r="D76" s="169"/>
+      <c r="E76" s="169"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="169"/>
+      <c r="H76" s="169"/>
     </row>
     <row r="77" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="166" t="s">
+      <c r="A77" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="166"/>
-      <c r="C77" s="166"/>
-      <c r="D77" s="166"/>
-      <c r="E77" s="166"/>
-      <c r="F77" s="166"/>
-      <c r="G77" s="166"/>
-      <c r="H77" s="166"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="163"/>
+      <c r="D77" s="163"/>
+      <c r="E77" s="163"/>
+      <c r="F77" s="163"/>
+      <c r="G77" s="163"/>
+      <c r="H77" s="163"/>
     </row>
     <row r="78" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="167" t="s">
+      <c r="A78" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="167"/>
-      <c r="C78" s="167"/>
-      <c r="D78" s="167"/>
-      <c r="E78" s="167"/>
-      <c r="F78" s="167"/>
-      <c r="G78" s="167"/>
-      <c r="H78" s="167"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="156"/>
+      <c r="G78" s="156"/>
+      <c r="H78" s="156"/>
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="176" t="s">
+      <c r="A79" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="176"/>
-      <c r="C79" s="176"/>
-      <c r="D79" s="176"/>
-      <c r="E79" s="176"/>
-      <c r="F79" s="176"/>
-      <c r="G79" s="176"/>
-      <c r="H79" s="176"/>
+      <c r="B79" s="160"/>
+      <c r="C79" s="160"/>
+      <c r="D79" s="160"/>
+      <c r="E79" s="160"/>
+      <c r="F79" s="160"/>
+      <c r="G79" s="160"/>
+      <c r="H79" s="160"/>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="176" t="s">
+      <c r="A80" s="160" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="176"/>
-      <c r="C80" s="176"/>
-      <c r="D80" s="176"/>
-      <c r="E80" s="176"/>
-      <c r="F80" s="176"/>
-      <c r="G80" s="176"/>
-      <c r="H80" s="176"/>
+      <c r="B80" s="160"/>
+      <c r="C80" s="160"/>
+      <c r="D80" s="160"/>
+      <c r="E80" s="160"/>
+      <c r="F80" s="160"/>
+      <c r="G80" s="160"/>
+      <c r="H80" s="160"/>
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="176" t="s">
+      <c r="A81" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="B81" s="176"/>
-      <c r="C81" s="176"/>
-      <c r="D81" s="176"/>
-      <c r="E81" s="176"/>
-      <c r="F81" s="176"/>
-      <c r="G81" s="176"/>
-      <c r="H81" s="176"/>
+      <c r="B81" s="160"/>
+      <c r="C81" s="160"/>
+      <c r="D81" s="160"/>
+      <c r="E81" s="160"/>
+      <c r="F81" s="160"/>
+      <c r="G81" s="160"/>
+      <c r="H81" s="160"/>
     </row>
     <row r="82" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="157" t="s">
+      <c r="A82" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="157"/>
-      <c r="C82" s="157"/>
-      <c r="D82" s="157"/>
-      <c r="E82" s="157"/>
-      <c r="F82" s="157"/>
-      <c r="G82" s="157"/>
-      <c r="H82" s="157"/>
+      <c r="B82" s="155"/>
+      <c r="C82" s="155"/>
+      <c r="D82" s="155"/>
+      <c r="E82" s="155"/>
+      <c r="F82" s="155"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="155"/>
     </row>
     <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="174" t="s">
+      <c r="A83" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="B83" s="174"/>
-      <c r="C83" s="175" t="s">
+      <c r="B83" s="166"/>
+      <c r="C83" s="167" t="s">
         <v>126</v>
       </c>
-      <c r="D83" s="175"/>
-      <c r="E83" s="175"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
       <c r="F83" s="43"/>
       <c r="G83" s="43"/>
       <c r="H83" s="43"/>
     </row>
     <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="174" t="s">
+      <c r="A84" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="B84" s="174"/>
-      <c r="C84" s="175" t="s">
+      <c r="B84" s="166"/>
+      <c r="C84" s="167" t="s">
         <v>127</v>
       </c>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
       <c r="F84" s="43"/>
       <c r="G84" s="43"/>
       <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="167" t="s">
+      <c r="A85" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="167"/>
-      <c r="C85" s="167"/>
+      <c r="B85" s="156"/>
+      <c r="C85" s="156"/>
       <c r="D85" s="154" t="s">
         <v>72</v>
       </c>
@@ -11838,28 +11833,28 @@
       <c r="H86" s="154"/>
     </row>
     <row r="87" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="157" t="s">
+      <c r="A87" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="157"/>
-      <c r="C87" s="157"/>
-      <c r="D87" s="157"/>
-      <c r="E87" s="157"/>
-      <c r="F87" s="157"/>
-      <c r="G87" s="157"/>
-      <c r="H87" s="157"/>
+      <c r="B87" s="155"/>
+      <c r="C87" s="155"/>
+      <c r="D87" s="155"/>
+      <c r="E87" s="155"/>
+      <c r="F87" s="155"/>
+      <c r="G87" s="155"/>
+      <c r="H87" s="155"/>
     </row>
     <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="167" t="s">
+      <c r="A88" s="156" t="s">
         <v>1</v>
       </c>
-      <c r="B88" s="167"/>
-      <c r="C88" s="167"/>
-      <c r="D88" s="167"/>
-      <c r="E88" s="167"/>
-      <c r="F88" s="173"/>
-      <c r="G88" s="173"/>
-      <c r="H88" s="173"/>
+      <c r="B88" s="156"/>
+      <c r="C88" s="156"/>
+      <c r="D88" s="156"/>
+      <c r="E88" s="156"/>
+      <c r="F88" s="157"/>
+      <c r="G88" s="157"/>
+      <c r="H88" s="157"/>
     </row>
     <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="154" t="s">
@@ -11874,47 +11869,47 @@
       <c r="H89" s="154"/>
     </row>
     <row r="90" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="157" t="s">
+      <c r="A90" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="157"/>
-      <c r="C90" s="157"/>
-      <c r="D90" s="157"/>
-      <c r="E90" s="157"/>
-      <c r="F90" s="157"/>
-      <c r="G90" s="157"/>
-      <c r="H90" s="157"/>
+      <c r="B90" s="155"/>
+      <c r="C90" s="155"/>
+      <c r="D90" s="155"/>
+      <c r="E90" s="155"/>
+      <c r="F90" s="155"/>
+      <c r="G90" s="155"/>
+      <c r="H90" s="155"/>
     </row>
     <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="167" t="s">
+      <c r="A91" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="B91" s="167"/>
-      <c r="C91" s="182" t="s">
+      <c r="B91" s="156"/>
+      <c r="C91" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="D91" s="182"/>
-      <c r="E91" s="182"/>
-      <c r="F91" s="182"/>
-      <c r="G91" s="182"/>
-      <c r="H91" s="182"/>
+      <c r="D91" s="158"/>
+      <c r="E91" s="158"/>
+      <c r="F91" s="158"/>
+      <c r="G91" s="158"/>
+      <c r="H91" s="158"/>
     </row>
     <row r="92" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="183"/>
-      <c r="B92" s="183"/>
-      <c r="C92" s="183"/>
-      <c r="D92" s="183"/>
-      <c r="E92" s="183"/>
-      <c r="F92" s="183"/>
-      <c r="G92" s="183"/>
-      <c r="H92" s="183"/>
+      <c r="A92" s="159"/>
+      <c r="B92" s="159"/>
+      <c r="C92" s="159"/>
+      <c r="D92" s="159"/>
+      <c r="E92" s="159"/>
+      <c r="F92" s="159"/>
+      <c r="G92" s="159"/>
+      <c r="H92" s="159"/>
     </row>
     <row r="93" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="179" t="s">
+      <c r="A93" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="179"/>
-      <c r="C93" s="179"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="161"/>
       <c r="D93" s="50"/>
       <c r="E93" s="50"/>
       <c r="F93" s="50"/>
@@ -11924,110 +11919,110 @@
       <c r="A94" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="180"/>
-      <c r="C94" s="180"/>
-      <c r="D94" s="180"/>
-      <c r="E94" s="180"/>
-      <c r="F94" s="180"/>
+      <c r="B94" s="162"/>
+      <c r="C94" s="162"/>
+      <c r="D94" s="162"/>
+      <c r="E94" s="162"/>
+      <c r="F94" s="162"/>
       <c r="G94" s="58"/>
       <c r="H94" s="58"/>
     </row>
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="176" t="str">
+      <c r="A95" s="160" t="str">
         <f>A79</f>
         <v>Исполнительная схема №[№ акта] от [Дата окончания работы]</v>
       </c>
-      <c r="B95" s="176"/>
-      <c r="C95" s="176"/>
-      <c r="D95" s="176"/>
-      <c r="E95" s="176"/>
-      <c r="F95" s="176"/>
-      <c r="G95" s="176"/>
-      <c r="H95" s="176"/>
+      <c r="B95" s="160"/>
+      <c r="C95" s="160"/>
+      <c r="D95" s="160"/>
+      <c r="E95" s="160"/>
+      <c r="F95" s="160"/>
+      <c r="G95" s="160"/>
+      <c r="H95" s="160"/>
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="176" t="s">
+      <c r="A96" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="B96" s="176"/>
-      <c r="C96" s="176"/>
-      <c r="D96" s="176"/>
-      <c r="E96" s="176"/>
-      <c r="F96" s="176"/>
-      <c r="G96" s="176"/>
-      <c r="H96" s="176"/>
+      <c r="B96" s="160"/>
+      <c r="C96" s="160"/>
+      <c r="D96" s="160"/>
+      <c r="E96" s="160"/>
+      <c r="F96" s="160"/>
+      <c r="G96" s="160"/>
+      <c r="H96" s="160"/>
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="176" t="s">
+      <c r="A97" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="B97" s="176"/>
-      <c r="C97" s="176"/>
-      <c r="D97" s="176"/>
-      <c r="E97" s="176"/>
-      <c r="F97" s="176"/>
-      <c r="G97" s="176"/>
-      <c r="H97" s="176"/>
+      <c r="B97" s="160"/>
+      <c r="C97" s="160"/>
+      <c r="D97" s="160"/>
+      <c r="E97" s="160"/>
+      <c r="F97" s="160"/>
+      <c r="G97" s="160"/>
+      <c r="H97" s="160"/>
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="176" t="s">
+      <c r="A98" s="160" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="176"/>
-      <c r="C98" s="176"/>
-      <c r="D98" s="176"/>
-      <c r="E98" s="176"/>
-      <c r="F98" s="176"/>
-      <c r="G98" s="176"/>
-      <c r="H98" s="176"/>
+      <c r="B98" s="160"/>
+      <c r="C98" s="160"/>
+      <c r="D98" s="160"/>
+      <c r="E98" s="160"/>
+      <c r="F98" s="160"/>
+      <c r="G98" s="160"/>
+      <c r="H98" s="160"/>
     </row>
     <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="176" t="s">
+      <c r="A99" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="B99" s="176"/>
-      <c r="C99" s="176"/>
-      <c r="D99" s="176"/>
-      <c r="E99" s="176"/>
-      <c r="F99" s="176"/>
-      <c r="G99" s="176"/>
-      <c r="H99" s="176"/>
+      <c r="B99" s="160"/>
+      <c r="C99" s="160"/>
+      <c r="D99" s="160"/>
+      <c r="E99" s="160"/>
+      <c r="F99" s="160"/>
+      <c r="G99" s="160"/>
+      <c r="H99" s="160"/>
     </row>
     <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="181" t="s">
+      <c r="A100" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="181"/>
-      <c r="C100" s="181"/>
-      <c r="D100" s="181"/>
-      <c r="E100" s="181"/>
-      <c r="F100" s="181"/>
-      <c r="G100" s="181"/>
-      <c r="H100" s="181"/>
+      <c r="B100" s="164"/>
+      <c r="C100" s="164"/>
+      <c r="D100" s="164"/>
+      <c r="E100" s="164"/>
+      <c r="F100" s="164"/>
+      <c r="G100" s="164"/>
+      <c r="H100" s="164"/>
     </row>
     <row r="101" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="166" t="s">
+      <c r="A101" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="B101" s="166"/>
-      <c r="C101" s="166"/>
-      <c r="D101" s="166"/>
-      <c r="E101" s="166"/>
-      <c r="F101" s="166"/>
-      <c r="G101" s="166"/>
-      <c r="H101" s="166"/>
+      <c r="B101" s="163"/>
+      <c r="C101" s="163"/>
+      <c r="D101" s="163"/>
+      <c r="E101" s="163"/>
+      <c r="F101" s="163"/>
+      <c r="G101" s="163"/>
+      <c r="H101" s="163"/>
     </row>
     <row r="102" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="167" t="s">
+      <c r="A102" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="B102" s="167"/>
-      <c r="C102" s="167"/>
-      <c r="D102" s="167"/>
-      <c r="E102" s="167"/>
-      <c r="F102" s="167"/>
-      <c r="G102" s="167"/>
-      <c r="H102" s="167"/>
+      <c r="B102" s="156"/>
+      <c r="C102" s="156"/>
+      <c r="D102" s="156"/>
+      <c r="E102" s="156"/>
+      <c r="F102" s="156"/>
+      <c r="G102" s="156"/>
+      <c r="H102" s="156"/>
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="55" t="s">
@@ -12036,11 +12031,11 @@
       <c r="B103" s="60"/>
       <c r="C103" s="60"/>
       <c r="D103" s="60"/>
-      <c r="E103" s="178" t="s">
+      <c r="E103" s="153" t="s">
         <v>106</v>
       </c>
-      <c r="F103" s="178"/>
-      <c r="G103" s="178"/>
+      <c r="F103" s="153"/>
+      <c r="G103" s="153"/>
       <c r="H103" s="60"/>
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12048,35 +12043,35 @@
       <c r="B104" s="57"/>
       <c r="C104" s="57"/>
       <c r="D104" s="57"/>
-      <c r="E104" s="157" t="s">
+      <c r="E104" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="F104" s="157"/>
-      <c r="G104" s="157"/>
-      <c r="H104" s="157"/>
+      <c r="F104" s="155"/>
+      <c r="G104" s="155"/>
+      <c r="H104" s="155"/>
     </row>
     <row r="105" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="167" t="s">
+      <c r="A105" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="B105" s="167"/>
-      <c r="C105" s="167"/>
-      <c r="D105" s="167"/>
-      <c r="E105" s="167"/>
-      <c r="F105" s="167"/>
-      <c r="G105" s="167"/>
-      <c r="H105" s="167"/>
+      <c r="B105" s="156"/>
+      <c r="C105" s="156"/>
+      <c r="D105" s="156"/>
+      <c r="E105" s="156"/>
+      <c r="F105" s="156"/>
+      <c r="G105" s="156"/>
+      <c r="H105" s="156"/>
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="60"/>
       <c r="B106" s="60"/>
       <c r="C106" s="60"/>
       <c r="D106" s="60"/>
-      <c r="E106" s="178" t="s">
+      <c r="E106" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="F106" s="178"/>
-      <c r="G106" s="178"/>
+      <c r="F106" s="153"/>
+      <c r="G106" s="153"/>
       <c r="H106" s="60"/>
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12084,37 +12079,37 @@
       <c r="B107" s="57"/>
       <c r="C107" s="57"/>
       <c r="D107" s="57"/>
-      <c r="E107" s="157" t="s">
+      <c r="E107" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="F107" s="157"/>
-      <c r="G107" s="157"/>
-      <c r="H107" s="157"/>
+      <c r="F107" s="155"/>
+      <c r="G107" s="155"/>
+      <c r="H107" s="155"/>
     </row>
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="153" t="s">
+      <c r="A108" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="153"/>
-      <c r="C108" s="153"/>
-      <c r="D108" s="153"/>
-      <c r="E108" s="153"/>
-      <c r="F108" s="153"/>
-      <c r="G108" s="153"/>
-      <c r="H108" s="153"/>
+      <c r="B108" s="165"/>
+      <c r="C108" s="165"/>
+      <c r="D108" s="165"/>
+      <c r="E108" s="165"/>
+      <c r="F108" s="165"/>
+      <c r="G108" s="165"/>
+      <c r="H108" s="165"/>
     </row>
     <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="153" t="s">
+      <c r="A109" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="B109" s="153"/>
-      <c r="C109" s="153"/>
+      <c r="B109" s="165"/>
+      <c r="C109" s="165"/>
       <c r="D109" s="60"/>
-      <c r="E109" s="178" t="s">
+      <c r="E109" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="F109" s="178"/>
-      <c r="G109" s="178"/>
+      <c r="F109" s="153"/>
+      <c r="G109" s="153"/>
       <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12122,35 +12117,35 @@
       <c r="B110" s="57"/>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
-      <c r="E110" s="157" t="s">
+      <c r="E110" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="F110" s="157"/>
-      <c r="G110" s="157"/>
-      <c r="H110" s="157"/>
+      <c r="F110" s="155"/>
+      <c r="G110" s="155"/>
+      <c r="H110" s="155"/>
     </row>
     <row r="111" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="167" t="s">
+      <c r="A111" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="B111" s="167"/>
-      <c r="C111" s="167"/>
-      <c r="D111" s="167"/>
-      <c r="E111" s="167"/>
-      <c r="F111" s="167"/>
-      <c r="G111" s="167"/>
-      <c r="H111" s="167"/>
+      <c r="B111" s="156"/>
+      <c r="C111" s="156"/>
+      <c r="D111" s="156"/>
+      <c r="E111" s="156"/>
+      <c r="F111" s="156"/>
+      <c r="G111" s="156"/>
+      <c r="H111" s="156"/>
     </row>
     <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="60"/>
       <c r="B112" s="60"/>
       <c r="C112" s="60"/>
       <c r="D112" s="60"/>
-      <c r="E112" s="178" t="s">
+      <c r="E112" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="F112" s="178"/>
-      <c r="G112" s="178"/>
+      <c r="F112" s="153"/>
+      <c r="G112" s="153"/>
       <c r="H112" s="60"/>
     </row>
     <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12158,35 +12153,35 @@
       <c r="B113" s="57"/>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
-      <c r="E113" s="157" t="s">
+      <c r="E113" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="F113" s="157"/>
-      <c r="G113" s="157"/>
-      <c r="H113" s="157"/>
+      <c r="F113" s="155"/>
+      <c r="G113" s="155"/>
+      <c r="H113" s="155"/>
     </row>
     <row r="114" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="167" t="s">
+      <c r="A114" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="B114" s="167"/>
-      <c r="C114" s="167"/>
-      <c r="D114" s="167"/>
-      <c r="E114" s="167"/>
-      <c r="F114" s="167"/>
-      <c r="G114" s="167"/>
-      <c r="H114" s="167"/>
+      <c r="B114" s="156"/>
+      <c r="C114" s="156"/>
+      <c r="D114" s="156"/>
+      <c r="E114" s="156"/>
+      <c r="F114" s="156"/>
+      <c r="G114" s="156"/>
+      <c r="H114" s="156"/>
     </row>
     <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="60"/>
       <c r="B115" s="60"/>
       <c r="C115" s="60"/>
       <c r="D115" s="60"/>
-      <c r="E115" s="178" t="s">
+      <c r="E115" s="153" t="s">
         <v>116</v>
       </c>
-      <c r="F115" s="178"/>
-      <c r="G115" s="178"/>
+      <c r="F115" s="153"/>
+      <c r="G115" s="153"/>
       <c r="H115" s="60"/>
     </row>
     <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12194,12 +12189,12 @@
       <c r="B116" s="57"/>
       <c r="C116" s="57"/>
       <c r="D116" s="57"/>
-      <c r="E116" s="157" t="s">
+      <c r="E116" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="F116" s="157"/>
-      <c r="G116" s="157"/>
-      <c r="H116" s="157"/>
+      <c r="F116" s="155"/>
+      <c r="G116" s="155"/>
+      <c r="H116" s="155"/>
     </row>
     <row r="117" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="55" t="s">
@@ -12208,11 +12203,11 @@
       <c r="B117" s="45"/>
       <c r="C117" s="45"/>
       <c r="D117" s="45"/>
-      <c r="E117" s="178" t="s">
+      <c r="E117" s="153" t="s">
         <v>108</v>
       </c>
-      <c r="F117" s="178"/>
-      <c r="G117" s="178"/>
+      <c r="F117" s="153"/>
+      <c r="G117" s="153"/>
       <c r="H117" s="45"/>
     </row>
     <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -12220,27 +12215,110 @@
       <c r="B118" s="57"/>
       <c r="C118" s="57"/>
       <c r="D118" s="57"/>
-      <c r="E118" s="157" t="s">
+      <c r="E118" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="F118" s="157"/>
-      <c r="G118" s="157"/>
-      <c r="H118" s="157"/>
+      <c r="F118" s="155"/>
+      <c r="G118" s="155"/>
+      <c r="H118" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:H91"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A97:H97"/>
-    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:H85"/>
+    <mergeCell ref="A80:H80"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A70:H70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="E71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:H74"/>
+    <mergeCell ref="A75:H75"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A76:H76"/>
     <mergeCell ref="E118:H118"/>
     <mergeCell ref="A111:H111"/>
     <mergeCell ref="E112:G112"/>
@@ -12265,101 +12343,18 @@
     <mergeCell ref="A109:C109"/>
     <mergeCell ref="E109:G109"/>
     <mergeCell ref="E110:H110"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:H85"/>
-    <mergeCell ref="A80:H80"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A82:H82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="A81:H81"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A87:H87"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A97:H97"/>
+    <mergeCell ref="A99:H99"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12367,1551 +12362,6 @@
   <headerFooter scaleWithDoc="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="70" max="7" man="1"/>
-  </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1084B79B-B15C-4B24-BB4C-096547138857}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.79998168889431442"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H112"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A58" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:H79"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="154" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="156" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="157" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-    </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="154"/>
-    </row>
-    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="157" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-    </row>
-    <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="159" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="159"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="159"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="160" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-    </row>
-    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="159" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="159"/>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="160" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-    </row>
-    <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="157"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="157"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="153" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="154" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-    </row>
-    <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="157" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="154" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="154"/>
-    </row>
-    <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="157"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-    </row>
-    <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="153" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="153"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="161" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="154"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="154"/>
-    </row>
-    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="157" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="157"/>
-      <c r="D23" s="157"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="154" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="154"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="154"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="154"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="154"/>
-    </row>
-    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="162" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="162"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="163" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="164" t="e">
-        <f>"№"&amp;#REF!&amp;".1"</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="62" t="e">
-        <f>IF(C81&gt;#REF!,C81,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="165" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="154" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="154"/>
-    </row>
-    <row r="32" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="166" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="154" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-    </row>
-    <row r="34" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="H34" s="157"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-    </row>
-    <row r="36" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="157" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="157"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="154" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-    </row>
-    <row r="38" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="157" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="154" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="154" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="154" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-    </row>
-    <row r="42" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="157"/>
-      <c r="E42" s="157"/>
-      <c r="F42" s="157"/>
-      <c r="G42" s="157"/>
-      <c r="H42" s="157"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="167" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-    </row>
-    <row r="44" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="154" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-    </row>
-    <row r="45" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="168" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="169"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="169"/>
-      <c r="G45" s="169"/>
-      <c r="H45" s="169"/>
-    </row>
-    <row r="46" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-    </row>
-    <row r="47" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="157" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-    </row>
-    <row r="48" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="154" t="s">
-        <v>105</v>
-      </c>
-      <c r="B48" s="154"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-    </row>
-    <row r="49" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="157" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="157"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-    </row>
-    <row r="50" spans="1:8" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="167" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
-    </row>
-    <row r="51" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="154" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-    </row>
-    <row r="52" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="170" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-    </row>
-    <row r="53" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="171" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="171"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-    </row>
-    <row r="54" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="170" t="s">
-        <v>84</v>
-      </c>
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-    </row>
-    <row r="55" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="171" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="171"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="157" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="157"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
-    </row>
-    <row r="57" spans="1:8" s="54" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="153"/>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="154" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" s="154"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="154"/>
-      <c r="E58" s="154"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="154"/>
-      <c r="H58" s="154"/>
-    </row>
-    <row r="59" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="157" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="157"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="154" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="154"/>
-      <c r="C60" s="154"/>
-      <c r="D60" s="154"/>
-      <c r="E60" s="154"/>
-      <c r="F60" s="154"/>
-      <c r="G60" s="154"/>
-      <c r="H60" s="154"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="157" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="157"/>
-      <c r="C61" s="157"/>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="154"/>
-      <c r="H62" s="154"/>
-    </row>
-    <row r="63" spans="1:8" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="155" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="155"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="156" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="156"/>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
-    </row>
-    <row r="65" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="157" t="s">
-        <v>59</v>
-      </c>
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-    </row>
-    <row r="66" spans="1:8" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="167" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="167"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="154" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" s="154"/>
-      <c r="F66" s="154"/>
-      <c r="G66" s="154"/>
-      <c r="H66" s="154"/>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="157" t="s">
-        <v>60</v>
-      </c>
-      <c r="E67" s="157"/>
-      <c r="F67" s="157"/>
-      <c r="G67" s="157"/>
-      <c r="H67" s="157"/>
-    </row>
-    <row r="68" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="172" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68" s="172"/>
-      <c r="C68" s="172"/>
-      <c r="D68" s="172"/>
-      <c r="E68" s="172"/>
-      <c r="F68" s="154"/>
-      <c r="G68" s="154"/>
-      <c r="H68" s="154"/>
-    </row>
-    <row r="69" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="156" t="e">
-        <f>CONCATENATE("Армирование в опалубке ",RIGHT(#REF!, LEN(#REF!)- SEARCH(" ",#REF!)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="156"/>
-    </row>
-    <row r="70" spans="1:8" s="54" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="157" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="157"/>
-      <c r="C70" s="157"/>
-      <c r="D70" s="157"/>
-      <c r="E70" s="157"/>
-      <c r="F70" s="157"/>
-      <c r="G70" s="157"/>
-      <c r="H70" s="157"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="167"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="154"/>
-      <c r="F71" s="154"/>
-      <c r="G71" s="154"/>
-      <c r="H71" s="154"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="154" t="e">
-        <f>"ООО «Институт «Мосинжпроект», "&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B72" s="154"/>
-      <c r="C72" s="154"/>
-      <c r="D72" s="154"/>
-      <c r="E72" s="154"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="154"/>
-      <c r="H72" s="154"/>
-    </row>
-    <row r="73" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="166" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="166"/>
-      <c r="C73" s="166"/>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="166"/>
-      <c r="G73" s="166"/>
-      <c r="H73" s="166"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="167"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
-      <c r="F74" s="167"/>
-      <c r="G74" s="167"/>
-      <c r="H74" s="167"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="177" t="e">
-        <f>"Материалы согласно реестру "&amp;A28&amp;" от "&amp;TEXT(C81,"ДД.ММ.ГГГГ")&amp;"г."</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B75" s="177"/>
-      <c r="C75" s="177"/>
-      <c r="D75" s="177"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-    </row>
-    <row r="76" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="166" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="166"/>
-      <c r="C76" s="166"/>
-      <c r="D76" s="166"/>
-      <c r="E76" s="166"/>
-      <c r="F76" s="166"/>
-      <c r="G76" s="166"/>
-      <c r="H76" s="166"/>
-    </row>
-    <row r="77" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="167" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="167"/>
-      <c r="C77" s="167"/>
-      <c r="D77" s="167"/>
-      <c r="E77" s="167"/>
-      <c r="F77" s="167"/>
-      <c r="G77" s="167"/>
-      <c r="H77" s="167"/>
-    </row>
-    <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="176" t="e">
-        <f>"Исполнительная схема "&amp;A28&amp;" от "&amp;TEXT(#REF!,"ДД.ММ.ГГГГ")&amp;"г."</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B78" s="176"/>
-      <c r="C78" s="176"/>
-      <c r="D78" s="176"/>
-      <c r="E78" s="176"/>
-      <c r="F78" s="176"/>
-      <c r="G78" s="176"/>
-      <c r="H78" s="176"/>
-    </row>
-    <row r="79" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="157" t="s">
-        <v>70</v>
-      </c>
-      <c r="B79" s="157"/>
-      <c r="C79" s="157"/>
-      <c r="D79" s="157"/>
-      <c r="E79" s="157"/>
-      <c r="F79" s="157"/>
-      <c r="G79" s="157"/>
-      <c r="H79" s="157"/>
-    </row>
-    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="174" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" s="174"/>
-      <c r="C80" s="175" t="e">
-        <f>#REF!-4</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D80" s="175"/>
-      <c r="E80" s="175"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-    </row>
-    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="174" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="174"/>
-      <c r="C81" s="175" t="e">
-        <f>#REF!-1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D81" s="175"/>
-      <c r="E81" s="175"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-    </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="167" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="167"/>
-      <c r="C82" s="167"/>
-      <c r="D82" s="154" t="s">
-        <v>72</v>
-      </c>
-      <c r="E82" s="154"/>
-      <c r="F82" s="154"/>
-      <c r="G82" s="154"/>
-      <c r="H82" s="154"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="154" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="154"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="154"/>
-      <c r="H83" s="154"/>
-    </row>
-    <row r="84" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="157" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84" s="157"/>
-      <c r="C84" s="157"/>
-      <c r="D84" s="157"/>
-      <c r="E84" s="157"/>
-      <c r="F84" s="157"/>
-      <c r="G84" s="157"/>
-      <c r="H84" s="157"/>
-    </row>
-    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="167" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85" s="167"/>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
-      <c r="F85" s="173"/>
-      <c r="G85" s="173"/>
-      <c r="H85" s="173"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="154" t="s">
-        <v>122</v>
-      </c>
-      <c r="B86" s="154"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="154"/>
-    </row>
-    <row r="87" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="157" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="157"/>
-      <c r="C87" s="157"/>
-      <c r="D87" s="157"/>
-      <c r="E87" s="157"/>
-      <c r="F87" s="157"/>
-      <c r="G87" s="157"/>
-      <c r="H87" s="157"/>
-    </row>
-    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="167" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="167"/>
-      <c r="C88" s="182" t="e">
-        <f xml:space="preserve"> IF(#REF!=0, "","Учетный лист №б/н от "&amp;TEXT(#REF!,"ДД.ММ.ГГГГ")&amp;"г.")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D88" s="182"/>
-      <c r="E88" s="182"/>
-      <c r="F88" s="182"/>
-      <c r="G88" s="182"/>
-      <c r="H88" s="182"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="183"/>
-      <c r="B89" s="183"/>
-      <c r="C89" s="183"/>
-      <c r="D89" s="183"/>
-      <c r="E89" s="183"/>
-      <c r="F89" s="183"/>
-      <c r="G89" s="183"/>
-      <c r="H89" s="183"/>
-    </row>
-    <row r="90" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="179" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" s="179"/>
-      <c r="C90" s="179"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-    </row>
-    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="180"/>
-      <c r="C91" s="180"/>
-      <c r="D91" s="180"/>
-      <c r="E91" s="180"/>
-      <c r="F91" s="180"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-    </row>
-    <row r="92" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="176" t="e">
-        <f>A78</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B92" s="176"/>
-      <c r="C92" s="176"/>
-      <c r="D92" s="176"/>
-      <c r="E92" s="176"/>
-      <c r="F92" s="176"/>
-      <c r="G92" s="176"/>
-      <c r="H92" s="176"/>
-    </row>
-    <row r="93" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="176" t="e">
-        <f>"Реестр "&amp;A28&amp;" от "&amp;TEXT(C81,"ДД.ММ.ГГГГ")&amp;"г."</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B93" s="176"/>
-      <c r="C93" s="176"/>
-      <c r="D93" s="176"/>
-      <c r="E93" s="176"/>
-      <c r="F93" s="176"/>
-      <c r="G93" s="176"/>
-      <c r="H93" s="176"/>
-    </row>
-    <row r="94" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="176" t="e">
-        <f>C88</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B94" s="176"/>
-      <c r="C94" s="176"/>
-      <c r="D94" s="176"/>
-      <c r="E94" s="176"/>
-      <c r="F94" s="176"/>
-      <c r="G94" s="176"/>
-      <c r="H94" s="176"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="166" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="166"/>
-      <c r="C95" s="166"/>
-      <c r="D95" s="166"/>
-      <c r="E95" s="166"/>
-      <c r="F95" s="166"/>
-      <c r="G95" s="166"/>
-      <c r="H95" s="166"/>
-    </row>
-    <row r="96" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="167" t="s">
-        <v>53</v>
-      </c>
-      <c r="B96" s="167"/>
-      <c r="C96" s="167"/>
-      <c r="D96" s="167"/>
-      <c r="E96" s="167"/>
-      <c r="F96" s="167"/>
-      <c r="G96" s="167"/>
-      <c r="H96" s="167"/>
-    </row>
-    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="178" t="s">
-        <v>106</v>
-      </c>
-      <c r="F97" s="178"/>
-      <c r="G97" s="178"/>
-      <c r="H97" s="60"/>
-    </row>
-    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
-      <c r="B98" s="57"/>
-      <c r="C98" s="57"/>
-      <c r="D98" s="57"/>
-      <c r="E98" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="F98" s="157"/>
-      <c r="G98" s="157"/>
-      <c r="H98" s="157"/>
-    </row>
-    <row r="99" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99" s="167"/>
-      <c r="C99" s="167"/>
-      <c r="D99" s="167"/>
-      <c r="E99" s="167"/>
-      <c r="F99" s="167"/>
-      <c r="G99" s="167"/>
-      <c r="H99" s="167"/>
-    </row>
-    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="60"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="60"/>
-      <c r="E100" s="178" t="s">
-        <v>114</v>
-      </c>
-      <c r="F100" s="178"/>
-      <c r="G100" s="178"/>
-      <c r="H100" s="60"/>
-    </row>
-    <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="F101" s="157"/>
-      <c r="G101" s="157"/>
-      <c r="H101" s="157"/>
-    </row>
-    <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="153" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="153"/>
-      <c r="C102" s="153"/>
-      <c r="D102" s="153"/>
-      <c r="E102" s="153"/>
-      <c r="F102" s="153"/>
-      <c r="G102" s="153"/>
-      <c r="H102" s="153"/>
-    </row>
-    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="153" t="s">
-        <v>96</v>
-      </c>
-      <c r="B103" s="153"/>
-      <c r="C103" s="153"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="178" t="s">
-        <v>107</v>
-      </c>
-      <c r="F103" s="178"/>
-      <c r="G103" s="178"/>
-      <c r="H103" s="61"/>
-    </row>
-    <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="57"/>
-      <c r="D104" s="57"/>
-      <c r="E104" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="F104" s="157"/>
-      <c r="G104" s="157"/>
-      <c r="H104" s="157"/>
-    </row>
-    <row r="105" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="167" t="s">
-        <v>38</v>
-      </c>
-      <c r="B105" s="167"/>
-      <c r="C105" s="167"/>
-      <c r="D105" s="167"/>
-      <c r="E105" s="167"/>
-      <c r="F105" s="167"/>
-      <c r="G105" s="167"/>
-      <c r="H105" s="167"/>
-    </row>
-    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="60"/>
-      <c r="B106" s="60"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="60"/>
-      <c r="E106" s="178" t="s">
-        <v>115</v>
-      </c>
-      <c r="F106" s="178"/>
-      <c r="G106" s="178"/>
-      <c r="H106" s="60"/>
-    </row>
-    <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="57"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="F107" s="157"/>
-      <c r="G107" s="157"/>
-      <c r="H107" s="157"/>
-    </row>
-    <row r="108" spans="1:8" s="54" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="167" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" s="167"/>
-      <c r="C108" s="167"/>
-      <c r="D108" s="167"/>
-      <c r="E108" s="167"/>
-      <c r="F108" s="167"/>
-      <c r="G108" s="167"/>
-      <c r="H108" s="167"/>
-    </row>
-    <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="60"/>
-      <c r="B109" s="60"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="178" t="s">
-        <v>116</v>
-      </c>
-      <c r="F109" s="178"/>
-      <c r="G109" s="178"/>
-      <c r="H109" s="60"/>
-    </row>
-    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="57"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="57"/>
-      <c r="D110" s="57"/>
-      <c r="E110" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="F110" s="157"/>
-      <c r="G110" s="157"/>
-      <c r="H110" s="157"/>
-    </row>
-    <row r="111" spans="1:8" s="54" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B111" s="45"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="178" t="s">
-        <v>108</v>
-      </c>
-      <c r="F111" s="178"/>
-      <c r="G111" s="178"/>
-      <c r="H111" s="45"/>
-    </row>
-    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="57"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="F112" s="157"/>
-      <c r="G112" s="157"/>
-      <c r="H112" s="157"/>
-    </row>
-  </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="E107:H107"/>
-    <mergeCell ref="A108:H108"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="E110:H110"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="E112:H112"/>
-    <mergeCell ref="A102:H102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="A105:H105"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="A96:H96"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="E98:H98"/>
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="E101:H101"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A93:H93"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="A95:H95"/>
-    <mergeCell ref="A86:H86"/>
-    <mergeCell ref="A87:H87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:H88"/>
-    <mergeCell ref="A89:H89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="A83:H83"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="A79:H79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="A75:H75"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:H77"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:H70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="E71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="A73:H73"/>
-    <mergeCell ref="A64:H64"/>
-    <mergeCell ref="A65:H65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:H66"/>
-    <mergeCell ref="D67:H67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="A60:H60"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A49:H49"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A42:H42"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A36:H36"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A38:H38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A40:H40"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="67" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Шаблон.xlsx
+++ b/Шаблон.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\AOCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F6CDD7-0FB6-47A7-B583-E2CBF78B038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48D6140-ADE4-49EE-8D92-4A4FDB501ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="414" firstSheet="2" activeTab="2" xr2:uid="{A55FFE0D-A6D8-4D84-B615-F23C27029847}"/>
   </bookViews>
@@ -447,9 +447,6 @@
     <t xml:space="preserve">Переверзин В.А., приказ № ПР-52-24 от 29.07.2024 г.  </t>
   </si>
   <si>
-    <t xml:space="preserve">по проекту </t>
-  </si>
-  <si>
     <t>приказ  № 78 от 28.01.2025 г.</t>
   </si>
   <si>
@@ -465,9 +462,6 @@
     <t>[Дата окончания работы]</t>
   </si>
   <si>
-    <t>Исполнительная схема №[№ акта] от [Дата окончания работы]</t>
-  </si>
-  <si>
     <t>[Материалы1]</t>
   </si>
   <si>
@@ -493,6 +487,12 @@
   </si>
   <si>
     <t>[Материалы2_1]</t>
+  </si>
+  <si>
+    <t>Согласно проекта</t>
+  </si>
+  <si>
+    <t>Исполнительная схема №[№ акта] от [Дата акта]</t>
   </si>
 </sst>
 </file>
@@ -10763,7 +10763,7 @@
   <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11111,7 +11111,7 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="178" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="178"/>
       <c r="C28" s="178"/>
@@ -11120,7 +11120,7 @@
       <c r="F28" s="49"/>
       <c r="G28" s="50"/>
       <c r="H28" s="62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
@@ -11273,7 +11273,7 @@
     </row>
     <row r="41" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="154" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41" s="154"/>
       <c r="C41" s="154"/>
@@ -11613,7 +11613,7 @@
     </row>
     <row r="69" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="168" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" s="168"/>
       <c r="C69" s="168"/>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="154" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B72" s="154"/>
       <c r="C72" s="154"/>
@@ -11684,7 +11684,7 @@
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="169" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" s="169"/>
       <c r="C75" s="169"/>
@@ -11696,7 +11696,7 @@
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="169" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B76" s="169"/>
       <c r="C76" s="169"/>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="160" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B79" s="160"/>
       <c r="C79" s="160"/>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="160" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B80" s="160"/>
       <c r="C80" s="160"/>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="81" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="160" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B81" s="160"/>
       <c r="C81" s="160"/>
@@ -11784,7 +11784,7 @@
       </c>
       <c r="B83" s="166"/>
       <c r="C83" s="167" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D83" s="167"/>
       <c r="E83" s="167"/>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B84" s="166"/>
       <c r="C84" s="167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D84" s="167"/>
       <c r="E84" s="167"/>
@@ -11858,7 +11858,7 @@
     </row>
     <row r="89" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="154" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B89" s="154"/>
       <c r="C89" s="154"/>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="B91" s="156"/>
       <c r="C91" s="158" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D91" s="158"/>
       <c r="E91" s="158"/>
@@ -11930,7 +11930,7 @@
     <row r="95" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="160" t="str">
         <f>A79</f>
-        <v>Исполнительная схема №[№ акта] от [Дата окончания работы]</v>
+        <v>Исполнительная схема №[№ акта] от [Дата акта]</v>
       </c>
       <c r="B95" s="160"/>
       <c r="C95" s="160"/>
@@ -11942,7 +11942,7 @@
     </row>
     <row r="96" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="160" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B96" s="160"/>
       <c r="C96" s="160"/>
@@ -11954,7 +11954,7 @@
     </row>
     <row r="97" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="160" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B97" s="160"/>
       <c r="C97" s="160"/>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="98" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="160" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B98" s="160"/>
       <c r="C98" s="160"/>
@@ -11978,7 +11978,7 @@
     </row>
     <row r="99" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="160" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B99" s="160"/>
       <c r="C99" s="160"/>
@@ -11990,7 +11990,7 @@
     </row>
     <row r="100" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="164" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B100" s="164"/>
       <c r="C100" s="164"/>
